--- a/Doc/Area.xlsx
+++ b/Doc/Area.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="2040" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="10305" yWindow="2040" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1242">
   <si>
     <t>CN</t>
   </si>
@@ -3691,14 +3691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name_Chinese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name_English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3707,14 +3699,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name_Full</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AreaType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3731,10 +3715,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AreaName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shanghai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3756,6 +3736,30 @@
   </si>
   <si>
     <t>MapName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumberCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameChinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameEnglish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameFull</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4150,14 +4154,15 @@
   <dimension ref="A1:K242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
     <col min="3" max="3" width="12" style="4" customWidth="1"/>
-    <col min="4" max="6" width="9" style="4"/>
+    <col min="4" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="12.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="4" customWidth="1"/>
     <col min="8" max="8" width="9" style="4"/>
     <col min="9" max="9" width="11.375" style="4" customWidth="1"/>
@@ -4166,37 +4171,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>1234</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1229</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1233</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>1240</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="36" x14ac:dyDescent="0.15">
@@ -4222,7 +4227,7 @@
         <v>290</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="36" x14ac:dyDescent="0.15">
@@ -4248,7 +4253,7 @@
         <v>294</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="72" x14ac:dyDescent="0.15">
@@ -4274,7 +4279,7 @@
         <v>298</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.15">
@@ -4300,7 +4305,7 @@
         <v>304</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="36" x14ac:dyDescent="0.15">
@@ -4326,7 +4331,7 @@
         <v>310</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="36" x14ac:dyDescent="0.15">
@@ -4352,7 +4357,7 @@
         <v>314</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -4378,7 +4383,7 @@
         <v>319</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="24" x14ac:dyDescent="0.15">
@@ -4404,7 +4409,7 @@
         <v>325</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="36" x14ac:dyDescent="0.15">
@@ -4430,7 +4435,7 @@
         <v>331</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36" x14ac:dyDescent="0.15">
@@ -4456,7 +4461,7 @@
         <v>335</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="36" x14ac:dyDescent="0.15">
@@ -4482,7 +4487,7 @@
         <v>341</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -4508,7 +4513,7 @@
         <v>346</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="36" x14ac:dyDescent="0.15">
@@ -4534,7 +4539,7 @@
         <v>350</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.15">
@@ -4560,7 +4565,7 @@
         <v>354</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="36" x14ac:dyDescent="0.15">
@@ -4586,7 +4591,7 @@
         <v>358</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -4612,7 +4617,7 @@
         <v>362</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -4638,7 +4643,7 @@
         <v>366</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -4664,7 +4669,7 @@
         <v>371</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -4690,7 +4695,7 @@
         <v>377</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -4716,7 +4721,7 @@
         <v>382</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -4742,7 +4747,7 @@
         <v>386</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -4768,7 +4773,7 @@
         <v>392</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -4794,7 +4799,7 @@
         <v>395</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -4820,7 +4825,7 @@
         <v>399</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -4846,7 +4851,7 @@
         <v>403</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -4872,7 +4877,7 @@
         <v>407</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -4898,7 +4903,7 @@
         <v>413</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -4924,7 +4929,7 @@
         <v>417</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -4950,7 +4955,7 @@
         <v>423</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -4976,7 +4981,7 @@
         <v>427</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.15">
@@ -5002,7 +5007,7 @@
         <v>433</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5028,7 +5033,7 @@
         <v>437</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5054,7 +5059,7 @@
         <v>440</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -5080,7 +5085,7 @@
         <v>445</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5106,7 +5111,7 @@
         <v>448</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5132,7 +5137,7 @@
         <v>451</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5158,7 +5163,7 @@
         <v>454</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -5184,7 +5189,7 @@
         <v>457</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5210,7 +5215,7 @@
         <v>461</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -5236,7 +5241,7 @@
         <v>466</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5262,7 +5267,7 @@
         <v>470</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5288,7 +5293,7 @@
         <v>475</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5314,7 +5319,7 @@
         <v>478</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -5340,7 +5345,7 @@
         <v>481</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -5366,7 +5371,7 @@
         <v>484</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
@@ -5392,7 +5397,7 @@
         <v>487</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -5418,7 +5423,7 @@
         <v>490</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5444,7 +5449,7 @@
         <v>495</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5470,7 +5475,7 @@
         <v>500</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5496,7 +5501,7 @@
         <v>504</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.15">
@@ -5522,7 +5527,7 @@
         <v>509</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5548,7 +5553,7 @@
         <v>513</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="72" x14ac:dyDescent="0.15">
@@ -5574,7 +5579,7 @@
         <v>519</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -5600,7 +5605,7 @@
         <v>522</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5626,7 +5631,7 @@
         <v>524</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5652,7 +5657,7 @@
         <v>529</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5678,7 +5683,7 @@
         <v>532</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5704,7 +5709,7 @@
         <v>535</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5730,7 +5735,7 @@
         <v>538</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -5756,7 +5761,7 @@
         <v>542</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5782,7 +5787,7 @@
         <v>545</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5808,7 +5813,7 @@
         <v>550</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5834,7 +5839,7 @@
         <v>555</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5860,7 +5865,7 @@
         <v>560</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -5886,7 +5891,7 @@
         <v>565</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5912,7 +5917,7 @@
         <v>568</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5938,7 +5943,7 @@
         <v>571</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -5964,7 +5969,7 @@
         <v>576</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -5990,7 +5995,7 @@
         <v>579</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6016,7 +6021,7 @@
         <v>584</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6042,7 +6047,7 @@
         <v>587</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -6068,7 +6073,7 @@
         <v>590</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6086,7 +6091,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="1"/>
       <c r="H74" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="60" x14ac:dyDescent="0.15">
@@ -6112,7 +6117,7 @@
         <v>596</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -6138,7 +6143,7 @@
         <v>601</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6164,7 +6169,7 @@
         <v>604</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6190,7 +6195,7 @@
         <v>607</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -6216,7 +6221,7 @@
         <v>610</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -6242,7 +6247,7 @@
         <v>615</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6268,7 +6273,7 @@
         <v>620</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -6294,7 +6299,7 @@
         <v>625</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6320,7 +6325,7 @@
         <v>628</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6342,7 +6347,7 @@
         <v>631</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6368,7 +6373,7 @@
         <v>636</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -6394,7 +6399,7 @@
         <v>639</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6420,7 +6425,7 @@
         <v>642</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -6446,7 +6451,7 @@
         <v>647</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6472,7 +6477,7 @@
         <v>650</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -6498,7 +6503,7 @@
         <v>655</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -6524,7 +6529,7 @@
         <v>658</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -6550,7 +6555,7 @@
         <v>663</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
@@ -6576,7 +6581,7 @@
         <v>666</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6602,7 +6607,7 @@
         <v>669</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6628,7 +6633,7 @@
         <v>672</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6654,7 +6659,7 @@
         <v>677</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -6680,7 +6685,7 @@
         <v>680</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6706,7 +6711,7 @@
         <v>683</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="60" x14ac:dyDescent="0.15">
@@ -6732,7 +6737,7 @@
         <v>688</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6758,7 +6763,7 @@
         <v>691</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6784,7 +6789,7 @@
         <v>694</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6810,7 +6815,7 @@
         <v>697</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6836,7 +6841,7 @@
         <v>700</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6862,7 +6867,7 @@
         <v>703</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -6888,7 +6893,7 @@
         <v>706</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6914,7 +6919,7 @@
         <v>709</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
@@ -6940,7 +6945,7 @@
         <v>712</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -6966,7 +6971,7 @@
         <v>715</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -6992,7 +6997,7 @@
         <v>718</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.15">
@@ -7018,7 +7023,7 @@
         <v>721</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
@@ -7044,7 +7049,7 @@
         <v>724</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -7070,7 +7075,7 @@
         <v>727</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7096,7 +7101,7 @@
         <v>730</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7122,7 +7127,7 @@
         <v>733</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7148,7 +7153,7 @@
         <v>738</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="72" x14ac:dyDescent="0.15">
@@ -7174,7 +7179,7 @@
         <v>742</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7200,7 +7205,7 @@
         <v>745</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -7226,7 +7231,7 @@
         <v>748</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -7252,7 +7257,7 @@
         <v>753</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -7278,7 +7283,7 @@
         <v>756</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7304,7 +7309,7 @@
         <v>760</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7330,7 +7335,7 @@
         <v>763</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7356,7 +7361,7 @@
         <v>768</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7382,7 +7387,7 @@
         <v>773</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="60" x14ac:dyDescent="0.15">
@@ -7408,7 +7413,7 @@
         <v>776</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7434,7 +7439,7 @@
         <v>781</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7460,7 +7465,7 @@
         <v>784</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7486,7 +7491,7 @@
         <v>787</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="72" x14ac:dyDescent="0.15">
@@ -7512,7 +7517,7 @@
         <v>792</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7538,7 +7543,7 @@
         <v>795</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7564,7 +7569,7 @@
         <v>800</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -7590,7 +7595,7 @@
         <v>803</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7616,7 +7621,7 @@
         <v>806</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7642,7 +7647,7 @@
         <v>809</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7668,7 +7673,7 @@
         <v>812</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -7694,7 +7699,7 @@
         <v>817</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -7720,7 +7725,7 @@
         <v>822</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7746,7 +7751,7 @@
         <v>825</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7772,7 +7777,7 @@
         <v>825</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.15">
@@ -7798,7 +7803,7 @@
         <v>832</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7824,7 +7829,7 @@
         <v>835</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -7850,7 +7855,7 @@
         <v>840</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7876,7 +7881,7 @@
         <v>843</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7902,7 +7907,7 @@
         <v>846</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.15">
@@ -7928,7 +7933,7 @@
         <v>849</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -7954,7 +7959,7 @@
         <v>854</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -7980,7 +7985,7 @@
         <v>857</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8006,7 +8011,7 @@
         <v>860</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -8032,7 +8037,7 @@
         <v>865</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8058,7 +8063,7 @@
         <v>868</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8084,7 +8089,7 @@
         <v>873</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8110,7 +8115,7 @@
         <v>876</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8136,7 +8141,7 @@
         <v>879</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8162,7 +8167,7 @@
         <v>884</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -8188,7 +8193,7 @@
         <v>889</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -8214,7 +8219,7 @@
         <v>892</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8240,7 +8245,7 @@
         <v>895</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8266,7 +8271,7 @@
         <v>898</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -8292,7 +8297,7 @@
         <v>901</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.15">
@@ -8318,7 +8323,7 @@
         <v>906</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -8344,7 +8349,7 @@
         <v>911</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -8370,7 +8375,7 @@
         <v>916</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8396,7 +8401,7 @@
         <v>919</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8422,7 +8427,7 @@
         <v>922</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -8448,7 +8453,7 @@
         <v>925</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8474,7 +8479,7 @@
         <v>930</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8500,7 +8505,7 @@
         <v>935</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8526,7 +8531,7 @@
         <v>938</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="60" x14ac:dyDescent="0.15">
@@ -8552,7 +8557,7 @@
         <v>941</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8578,7 +8583,7 @@
         <v>944</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8604,7 +8609,7 @@
         <v>947</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8630,7 +8635,7 @@
         <v>950</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8656,7 +8661,7 @@
         <v>955</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8682,7 +8687,7 @@
         <v>958</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8708,7 +8713,7 @@
         <v>961</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8734,7 +8739,7 @@
         <v>966</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -8760,7 +8765,7 @@
         <v>969</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.15">
@@ -8786,7 +8791,7 @@
         <v>974</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -8812,7 +8817,7 @@
         <v>977</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8838,7 +8843,7 @@
         <v>981</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -8864,7 +8869,7 @@
         <v>984</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -8890,7 +8895,7 @@
         <v>989</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -8916,7 +8921,7 @@
         <v>994</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -8942,7 +8947,7 @@
         <v>999</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -8968,7 +8973,7 @@
         <v>1004</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="60" x14ac:dyDescent="0.15">
@@ -8994,7 +8999,7 @@
         <v>1009</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9020,7 +9025,7 @@
         <v>1014</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9046,7 +9051,7 @@
         <v>1017</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="72" x14ac:dyDescent="0.15">
@@ -9072,7 +9077,7 @@
         <v>1022</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9098,7 +9103,7 @@
         <v>1025</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9124,7 +9129,7 @@
         <v>1028</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9150,7 +9155,7 @@
         <v>1033</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9176,7 +9181,7 @@
         <v>1038</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9202,7 +9207,7 @@
         <v>1041</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -9228,7 +9233,7 @@
         <v>1044</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9254,7 +9259,7 @@
         <v>1049</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -9280,7 +9285,7 @@
         <v>1055</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -9306,7 +9311,7 @@
         <v>1058</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9332,7 +9337,7 @@
         <v>1061</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="60" x14ac:dyDescent="0.15">
@@ -9358,7 +9363,7 @@
         <v>1066</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.15">
@@ -9384,7 +9389,7 @@
         <v>1069</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="72" x14ac:dyDescent="0.15">
@@ -9410,7 +9415,7 @@
         <v>1074</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9436,7 +9441,7 @@
         <v>1077</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9462,7 +9467,7 @@
         <v>1082</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -9488,7 +9493,7 @@
         <v>1087</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9514,7 +9519,7 @@
         <v>1092</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9540,7 +9545,7 @@
         <v>1095</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -9566,7 +9571,7 @@
         <v>1098</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9592,7 +9597,7 @@
         <v>1101</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9618,7 +9623,7 @@
         <v>1104</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -9644,7 +9649,7 @@
         <v>1107</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -9670,7 +9675,7 @@
         <v>1110</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9696,7 +9701,7 @@
         <v>1115</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.15">
@@ -9722,7 +9727,7 @@
         <v>1120</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9748,7 +9753,7 @@
         <v>1123</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -9774,7 +9779,7 @@
         <v>1128</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9800,7 +9805,7 @@
         <v>1131</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9826,7 +9831,7 @@
         <v>1136</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -9852,7 +9857,7 @@
         <v>1139</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9878,7 +9883,7 @@
         <v>1144</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.15">
@@ -9904,7 +9909,7 @@
         <v>1149</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9930,7 +9935,7 @@
         <v>1152</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.15">
@@ -9956,7 +9961,7 @@
         <v>1155</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -9982,7 +9987,7 @@
         <v>1158</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="84" x14ac:dyDescent="0.15">
@@ -10008,7 +10013,7 @@
         <v>1161</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -10034,7 +10039,7 @@
         <v>1164</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="60" x14ac:dyDescent="0.15">
@@ -10060,7 +10065,7 @@
         <v>1169</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -10086,7 +10091,7 @@
         <v>1172</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -10112,7 +10117,7 @@
         <v>1175</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -10138,7 +10143,7 @@
         <v>1180</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -10164,7 +10169,7 @@
         <v>1183</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -10190,7 +10195,7 @@
         <v>1186</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -10216,7 +10221,7 @@
         <v>1189</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -10242,7 +10247,7 @@
         <v>1195</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -10268,7 +10273,7 @@
         <v>1200</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -10294,7 +10299,7 @@
         <v>1205</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -10320,7 +10325,7 @@
         <v>1210</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -10346,7 +10351,7 @@
         <v>1213</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -10372,7 +10377,7 @@
         <v>1216</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="36" x14ac:dyDescent="0.15">
@@ -10398,7 +10403,7 @@
         <v>1219</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="36" x14ac:dyDescent="0.15">
@@ -10424,31 +10429,33 @@
         <v>1222</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A242" s="6" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="B242" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E242" s="7" t="s">
         <v>1236</v>
       </c>
-      <c r="C242" s="6" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E242" s="7"/>
       <c r="F242" s="8">
         <v>21</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Area.xlsx
+++ b/Doc/Area.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="2040" windowWidth="19440" windowHeight="12240"/>
+    <workbookView xWindow="4920" yWindow="-300" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1237">
   <si>
     <t>CN</t>
   </si>
@@ -3707,30 +3707,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BelongArea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shanghai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>China</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MapPos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3739,10 +3719,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SHC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3760,6 +3736,10 @@
   </si>
   <si>
     <t>NameFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3821,7 +3801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3839,15 +3819,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4151,33 +4122,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K242"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J242" sqref="J242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="13.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" customWidth="1"/>
-    <col min="4" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="12.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9" style="4"/>
-    <col min="9" max="9" width="11.375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="4" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="12.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9" style="4"/>
+    <col min="10" max="10" width="11.375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1224</v>
@@ -4186,25 +4158,28 @@
         <v>1225</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>1226</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>1229</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>1235</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="36" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>288</v>
       </c>
@@ -4220,17 +4195,18 @@
       <c r="E2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="36" x14ac:dyDescent="0.15">
+      <c r="I2" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>291</v>
       </c>
@@ -4246,17 +4222,18 @@
       <c r="E3" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="72" x14ac:dyDescent="0.15">
+      <c r="I3" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>295</v>
       </c>
@@ -4272,17 +4249,18 @@
       <c r="E4" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.15">
+      <c r="I4" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>300</v>
       </c>
@@ -4298,17 +4276,18 @@
       <c r="E5" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="36" x14ac:dyDescent="0.15">
+      <c r="I5" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>306</v>
       </c>
@@ -4324,17 +4303,18 @@
       <c r="E6" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="36" x14ac:dyDescent="0.15">
+      <c r="I6" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>311</v>
       </c>
@@ -4350,17 +4330,18 @@
       <c r="E7" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I7" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>316</v>
       </c>
@@ -4376,17 +4357,18 @@
       <c r="E8" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2"/>
+      <c r="G8" s="3">
         <v>660</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="24" x14ac:dyDescent="0.15">
+      <c r="I8" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>321</v>
       </c>
@@ -4402,17 +4384,18 @@
       <c r="E9" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="36" x14ac:dyDescent="0.15">
+      <c r="I9" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>327</v>
       </c>
@@ -4428,17 +4411,18 @@
       <c r="E10" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="36" x14ac:dyDescent="0.15">
+      <c r="I10" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>332</v>
       </c>
@@ -4454,17 +4438,18 @@
       <c r="E11" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="36" x14ac:dyDescent="0.15">
+      <c r="I11" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>337</v>
       </c>
@@ -4480,17 +4465,18 @@
       <c r="E12" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I12" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>343</v>
       </c>
@@ -4506,17 +4492,18 @@
       <c r="E13" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2"/>
+      <c r="G13" s="3">
         <v>533</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="36" x14ac:dyDescent="0.15">
+      <c r="I13" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>347</v>
       </c>
@@ -4532,17 +4519,18 @@
       <c r="E14" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.15">
+      <c r="I14" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>351</v>
       </c>
@@ -4558,17 +4546,18 @@
       <c r="E15" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="36" x14ac:dyDescent="0.15">
+      <c r="I15" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="36" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>355</v>
       </c>
@@ -4584,17 +4573,18 @@
       <c r="E16" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I16" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>359</v>
       </c>
@@ -4610,17 +4600,18 @@
       <c r="E17" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I17" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>363</v>
       </c>
@@ -4636,17 +4627,18 @@
       <c r="E18" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I18" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>368</v>
       </c>
@@ -4662,17 +4654,18 @@
       <c r="E19" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I19" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>373</v>
       </c>
@@ -4688,17 +4681,18 @@
       <c r="E20" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I20" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>379</v>
       </c>
@@ -4714,17 +4708,18 @@
       <c r="E21" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2"/>
+      <c r="G21" s="3">
         <v>112</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I21" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>383</v>
       </c>
@@ -4740,17 +4735,18 @@
       <c r="E22" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I22" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>388</v>
       </c>
@@ -4766,17 +4762,18 @@
       <c r="E23" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I23" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>393</v>
       </c>
@@ -4792,17 +4789,18 @@
       <c r="E24" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2"/>
+      <c r="G24" s="3">
         <v>204</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I24" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>396</v>
       </c>
@@ -4818,17 +4816,18 @@
       <c r="E25" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I25" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>400</v>
       </c>
@@ -4844,17 +4843,18 @@
       <c r="E26" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I26" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>404</v>
       </c>
@@ -4870,17 +4870,18 @@
       <c r="E27" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I27" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>409</v>
       </c>
@@ -4896,17 +4897,18 @@
       <c r="E28" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I28" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>414</v>
       </c>
@@ -4922,17 +4924,18 @@
       <c r="E29" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2"/>
+      <c r="G29" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I29" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>419</v>
       </c>
@@ -4948,17 +4951,18 @@
       <c r="E30" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I30" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>424</v>
       </c>
@@ -4974,17 +4978,18 @@
       <c r="E31" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2"/>
+      <c r="G31" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="I31" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>429</v>
       </c>
@@ -5000,17 +5005,18 @@
       <c r="E32" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I32" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>434</v>
       </c>
@@ -5026,17 +5032,18 @@
       <c r="E33" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2"/>
+      <c r="G33" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I33" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>438</v>
       </c>
@@ -5052,17 +5059,18 @@
       <c r="E34" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2"/>
+      <c r="G34" s="3">
         <v>100</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I34" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>442</v>
       </c>
@@ -5078,17 +5086,18 @@
       <c r="E35" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2"/>
+      <c r="G35" s="3">
         <v>854</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I35" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>446</v>
       </c>
@@ -5104,17 +5113,18 @@
       <c r="E36" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2"/>
+      <c r="G36" s="3">
         <v>108</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I36" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>449</v>
       </c>
@@ -5130,17 +5140,18 @@
       <c r="E37" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2"/>
+      <c r="G37" s="3">
         <v>116</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I37" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>452</v>
       </c>
@@ -5156,17 +5167,18 @@
       <c r="E38" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2"/>
+      <c r="G38" s="3">
         <v>120</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I38" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>455</v>
       </c>
@@ -5182,17 +5194,18 @@
       <c r="E39" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2"/>
+      <c r="G39" s="3">
         <v>124</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I39" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>459</v>
       </c>
@@ -5208,17 +5221,18 @@
       <c r="E40" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2"/>
+      <c r="G40" s="3">
         <v>132</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I40" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>463</v>
       </c>
@@ -5234,17 +5248,18 @@
       <c r="E41" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2"/>
+      <c r="G41" s="3">
         <v>136</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I41" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>468</v>
       </c>
@@ -5260,17 +5275,18 @@
       <c r="E42" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2"/>
+      <c r="G42" s="3">
         <v>140</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I42" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>472</v>
       </c>
@@ -5286,17 +5302,18 @@
       <c r="E43" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2"/>
+      <c r="G43" s="3">
         <v>148</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I43" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>476</v>
       </c>
@@ -5312,17 +5329,18 @@
       <c r="E44" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2"/>
+      <c r="G44" s="3">
         <v>152</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I44" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>479</v>
       </c>
@@ -5338,17 +5356,18 @@
       <c r="E45" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2"/>
+      <c r="G45" s="3">
         <v>156</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I45" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>482</v>
       </c>
@@ -5364,17 +5383,18 @@
       <c r="E46" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2"/>
+      <c r="G46" s="3">
         <v>344</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I46" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>485</v>
       </c>
@@ -5390,17 +5410,18 @@
       <c r="E47" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2"/>
+      <c r="G47" s="3">
         <v>446</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I47" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>488</v>
       </c>
@@ -5416,17 +5437,18 @@
       <c r="E48" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2"/>
+      <c r="G48" s="3">
         <v>158</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I48" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>492</v>
       </c>
@@ -5442,17 +5464,18 @@
       <c r="E49" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2"/>
+      <c r="G49" s="3">
         <v>162</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I49" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>497</v>
       </c>
@@ -5468,17 +5491,18 @@
       <c r="E50" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2"/>
+      <c r="G50" s="3">
         <v>166</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I50" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>501</v>
       </c>
@@ -5494,17 +5518,18 @@
       <c r="E51" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2"/>
+      <c r="G51" s="3">
         <v>170</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="I51" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>506</v>
       </c>
@@ -5520,17 +5545,18 @@
       <c r="E52" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2"/>
+      <c r="G52" s="3">
         <v>174</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I52" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>511</v>
       </c>
@@ -5546,17 +5572,18 @@
       <c r="E53" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2"/>
+      <c r="G53" s="3">
         <v>178</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="72" x14ac:dyDescent="0.15">
+      <c r="I53" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="72" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>515</v>
       </c>
@@ -5572,17 +5599,18 @@
       <c r="E54" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="2"/>
+      <c r="G54" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I54" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>520</v>
       </c>
@@ -5598,17 +5626,18 @@
       <c r="E55" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2"/>
+      <c r="G55" s="3">
         <v>184</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I55" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>523</v>
       </c>
@@ -5624,17 +5653,18 @@
       <c r="E56" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2"/>
+      <c r="G56" s="3">
         <v>188</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I56" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>526</v>
       </c>
@@ -5650,17 +5680,18 @@
       <c r="E57" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2"/>
+      <c r="G57" s="3">
         <v>384</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I57" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>530</v>
       </c>
@@ -5676,17 +5707,18 @@
       <c r="E58" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2"/>
+      <c r="G58" s="3">
         <v>191</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I58" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>533</v>
       </c>
@@ -5702,17 +5734,18 @@
       <c r="E59" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2"/>
+      <c r="G59" s="3">
         <v>192</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I59" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>536</v>
       </c>
@@ -5728,17 +5761,18 @@
       <c r="E60" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2"/>
+      <c r="G60" s="3">
         <v>196</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I60" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>540</v>
       </c>
@@ -5754,17 +5788,18 @@
       <c r="E61" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2"/>
+      <c r="G61" s="3">
         <v>203</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H61" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I61" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>543</v>
       </c>
@@ -5780,17 +5815,18 @@
       <c r="E62" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2"/>
+      <c r="G62" s="3">
         <v>208</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I62" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>547</v>
       </c>
@@ -5806,17 +5842,18 @@
       <c r="E63" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2"/>
+      <c r="G63" s="3">
         <v>262</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I63" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>552</v>
       </c>
@@ -5832,17 +5869,18 @@
       <c r="E64" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2"/>
+      <c r="G64" s="3">
         <v>212</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I64" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>557</v>
       </c>
@@ -5858,17 +5896,18 @@
       <c r="E65" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2"/>
+      <c r="G65" s="3">
         <v>214</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I65" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>562</v>
       </c>
@@ -5884,17 +5923,18 @@
       <c r="E66" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2"/>
+      <c r="G66" s="3">
         <v>626</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I66" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>566</v>
       </c>
@@ -5910,17 +5950,18 @@
       <c r="E67" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="2"/>
+      <c r="G67" s="3">
         <v>218</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I67" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>569</v>
       </c>
@@ -5936,17 +5977,18 @@
       <c r="E68" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2"/>
+      <c r="G68" s="3">
         <v>818</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I68" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>573</v>
       </c>
@@ -5962,17 +6004,18 @@
       <c r="E69" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2"/>
+      <c r="G69" s="3">
         <v>222</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I69" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>577</v>
       </c>
@@ -5988,17 +6031,18 @@
       <c r="E70" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2"/>
+      <c r="G70" s="3">
         <v>226</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I70" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>581</v>
       </c>
@@ -6014,17 +6058,18 @@
       <c r="E71" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="2"/>
+      <c r="G71" s="3">
         <v>232</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I71" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>585</v>
       </c>
@@ -6040,17 +6085,18 @@
       <c r="E72" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="2"/>
+      <c r="G72" s="3">
         <v>233</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I72" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>588</v>
       </c>
@@ -6066,17 +6112,18 @@
       <c r="E73" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2"/>
+      <c r="G73" s="3">
         <v>231</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="H73" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I73" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>592</v>
       </c>
@@ -6088,13 +6135,14 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="F74" s="2"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>592</v>
       </c>
@@ -6110,17 +6158,18 @@
       <c r="E75" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2"/>
+      <c r="G75" s="3">
         <v>238</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="H75" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I75" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>598</v>
       </c>
@@ -6136,17 +6185,18 @@
       <c r="E76" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="2"/>
+      <c r="G76" s="3">
         <v>234</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I76" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>602</v>
       </c>
@@ -6162,17 +6212,18 @@
       <c r="E77" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2"/>
+      <c r="G77" s="3">
         <v>242</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I77" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>605</v>
       </c>
@@ -6188,17 +6239,18 @@
       <c r="E78" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="2"/>
+      <c r="G78" s="3">
         <v>246</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I78" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>608</v>
       </c>
@@ -6214,17 +6266,18 @@
       <c r="E79" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="2"/>
+      <c r="G79" s="3">
         <v>250</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I79" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>612</v>
       </c>
@@ -6240,17 +6293,18 @@
       <c r="E80" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2"/>
+      <c r="G80" s="3">
         <v>254</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I80" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>617</v>
       </c>
@@ -6266,17 +6320,18 @@
       <c r="E81" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="2"/>
+      <c r="G81" s="3">
         <v>258</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I81" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>622</v>
       </c>
@@ -6292,17 +6347,18 @@
       <c r="E82" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="2"/>
+      <c r="G82" s="3">
         <v>260</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I82" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>626</v>
       </c>
@@ -6318,17 +6374,18 @@
       <c r="E83" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2"/>
+      <c r="G83" s="3">
         <v>266</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I83" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>629</v>
@@ -6340,17 +6397,18 @@
       <c r="E84" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="2"/>
+      <c r="G84" s="3">
         <v>270</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I84" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>633</v>
       </c>
@@ -6366,17 +6424,18 @@
       <c r="E85" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="2"/>
+      <c r="G85" s="3">
         <v>268</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I85" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>637</v>
       </c>
@@ -6392,17 +6451,18 @@
       <c r="E86" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="2"/>
+      <c r="G86" s="3">
         <v>276</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I86" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>640</v>
       </c>
@@ -6418,17 +6478,18 @@
       <c r="E87" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="2"/>
+      <c r="G87" s="3">
         <v>288</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I87" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>644</v>
       </c>
@@ -6444,17 +6505,18 @@
       <c r="E88" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="2"/>
+      <c r="G88" s="3">
         <v>292</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I88" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>648</v>
       </c>
@@ -6470,17 +6532,18 @@
       <c r="E89" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="2"/>
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I89" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>652</v>
       </c>
@@ -6496,17 +6559,18 @@
       <c r="E90" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="2"/>
+      <c r="G90" s="3">
         <v>304</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="H90" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I90" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>656</v>
       </c>
@@ -6522,17 +6586,18 @@
       <c r="E91" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="2"/>
+      <c r="G91" s="3">
         <v>308</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I91" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>660</v>
       </c>
@@ -6548,17 +6613,18 @@
       <c r="E92" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="2"/>
+      <c r="G92" s="3">
         <v>312</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="H92" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I92" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>664</v>
       </c>
@@ -6574,17 +6640,18 @@
       <c r="E93" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="2"/>
+      <c r="G93" s="3">
         <v>316</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I93" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>667</v>
       </c>
@@ -6600,17 +6667,18 @@
       <c r="E94" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="2"/>
+      <c r="G94" s="3">
         <v>320</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="H94" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I94" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>670</v>
       </c>
@@ -6626,17 +6694,18 @@
       <c r="E95" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="2"/>
+      <c r="G95" s="3">
         <v>324</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I95" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>674</v>
       </c>
@@ -6652,17 +6721,18 @@
       <c r="E96" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="2"/>
+      <c r="G96" s="3">
         <v>624</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="H96" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I96" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>678</v>
       </c>
@@ -6678,17 +6748,18 @@
       <c r="E97" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="2"/>
+      <c r="G97" s="3">
         <v>328</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="H97" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I97" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>681</v>
       </c>
@@ -6704,17 +6775,18 @@
       <c r="E98" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="2"/>
+      <c r="G98" s="3">
         <v>332</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="I98" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>685</v>
       </c>
@@ -6730,17 +6802,18 @@
       <c r="E99" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="2"/>
+      <c r="G99" s="3">
         <v>334</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="H99" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I99" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>689</v>
       </c>
@@ -6756,17 +6829,18 @@
       <c r="E100" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="2"/>
+      <c r="G100" s="3">
         <v>340</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H100" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I100" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>692</v>
       </c>
@@ -6782,17 +6856,18 @@
       <c r="E101" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="2"/>
+      <c r="G101" s="3">
         <v>348</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="H101" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I101" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>695</v>
       </c>
@@ -6808,17 +6883,18 @@
       <c r="E102" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="2"/>
+      <c r="G102" s="3">
         <v>352</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="H102" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I102" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>698</v>
       </c>
@@ -6834,17 +6910,18 @@
       <c r="E103" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="2"/>
+      <c r="G103" s="3">
         <v>356</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="H103" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I103" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>701</v>
       </c>
@@ -6860,17 +6937,18 @@
       <c r="E104" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="2"/>
+      <c r="G104" s="3">
         <v>360</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="H104" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I104" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>704</v>
       </c>
@@ -6886,17 +6964,18 @@
       <c r="E105" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="2"/>
+      <c r="G105" s="3">
         <v>364</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="H105" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="H105" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I105" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>707</v>
       </c>
@@ -6912,17 +6991,18 @@
       <c r="E106" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="2"/>
+      <c r="G106" s="3">
         <v>368</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="H106" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I106" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>710</v>
       </c>
@@ -6938,17 +7018,18 @@
       <c r="E107" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="2"/>
+      <c r="G107" s="3">
         <v>372</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H107" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I107" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>713</v>
       </c>
@@ -6964,17 +7045,18 @@
       <c r="E108" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="2"/>
+      <c r="G108" s="3">
         <v>376</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="H108" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I108" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>716</v>
       </c>
@@ -6990,17 +7072,18 @@
       <c r="E109" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="2"/>
+      <c r="G109" s="3">
         <v>380</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="H109" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I109" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>719</v>
       </c>
@@ -7016,17 +7099,18 @@
       <c r="E110" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="2"/>
+      <c r="G110" s="3">
         <v>388</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="H110" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I110" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>722</v>
       </c>
@@ -7042,17 +7126,18 @@
       <c r="E111" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="2"/>
+      <c r="G111" s="3">
         <v>392</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="H111" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I111" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>725</v>
       </c>
@@ -7068,17 +7153,18 @@
       <c r="E112" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="2"/>
+      <c r="G112" s="3">
         <v>400</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I112" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>728</v>
       </c>
@@ -7094,17 +7180,18 @@
       <c r="E113" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="2"/>
+      <c r="G113" s="3">
         <v>398</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="H113" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I113" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>731</v>
       </c>
@@ -7120,17 +7207,18 @@
       <c r="E114" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="2"/>
+      <c r="G114" s="3">
         <v>404</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="H114" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I114" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>735</v>
       </c>
@@ -7146,17 +7234,18 @@
       <c r="E115" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="2"/>
+      <c r="G115" s="3">
         <v>296</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="H115" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="72" x14ac:dyDescent="0.15">
+      <c r="I115" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="72" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>740</v>
       </c>
@@ -7172,17 +7261,18 @@
       <c r="E116" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="2"/>
+      <c r="G116" s="3">
         <v>408</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="H116" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I116" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>743</v>
       </c>
@@ -7198,17 +7288,18 @@
       <c r="E117" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="2"/>
+      <c r="G117" s="3">
         <v>410</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="H117" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I117" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>746</v>
       </c>
@@ -7224,17 +7315,18 @@
       <c r="E118" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="2"/>
+      <c r="G118" s="3">
         <v>414</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="H118" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I118" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>750</v>
       </c>
@@ -7250,17 +7342,18 @@
       <c r="E119" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="2"/>
+      <c r="G119" s="3">
         <v>417</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="H119" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I119" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>754</v>
       </c>
@@ -7276,17 +7369,18 @@
       <c r="E120" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="2"/>
+      <c r="G120" s="3">
         <v>418</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="H120" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="H120" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I120" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>758</v>
       </c>
@@ -7302,17 +7396,18 @@
       <c r="E121" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="2"/>
+      <c r="G121" s="3">
         <v>428</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="H121" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I121" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>761</v>
       </c>
@@ -7328,17 +7423,18 @@
       <c r="E122" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="2"/>
+      <c r="G122" s="3">
         <v>422</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="H122" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I122" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>765</v>
       </c>
@@ -7354,17 +7450,18 @@
       <c r="E123" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="2"/>
+      <c r="G123" s="3">
         <v>426</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="H123" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I123" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>770</v>
       </c>
@@ -7380,17 +7477,18 @@
       <c r="E124" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="2"/>
+      <c r="G124" s="3">
         <v>430</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="H124" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="H124" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="I124" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>774</v>
       </c>
@@ -7406,17 +7504,18 @@
       <c r="E125" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125" s="2"/>
+      <c r="G125" s="3">
         <v>434</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="H125" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="H125" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I125" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>778</v>
       </c>
@@ -7432,17 +7531,18 @@
       <c r="E126" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="2"/>
+      <c r="G126" s="3">
         <v>438</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="H126" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I126" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>782</v>
       </c>
@@ -7458,17 +7558,18 @@
       <c r="E127" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="2"/>
+      <c r="G127" s="3">
         <v>440</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="H127" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I127" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>785</v>
       </c>
@@ -7484,17 +7585,18 @@
       <c r="E128" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="2"/>
+      <c r="G128" s="3">
         <v>442</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="H128" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="H128" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="72" x14ac:dyDescent="0.15">
+      <c r="I128" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="72" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>789</v>
       </c>
@@ -7510,17 +7612,18 @@
       <c r="E129" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="2"/>
+      <c r="G129" s="3">
         <v>807</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="H129" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="H129" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I129" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>793</v>
       </c>
@@ -7536,17 +7639,18 @@
       <c r="E130" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="2"/>
+      <c r="G130" s="3">
         <v>450</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="H130" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="H130" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I130" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>797</v>
       </c>
@@ -7562,17 +7666,18 @@
       <c r="E131" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="2"/>
+      <c r="G131" s="3">
         <v>454</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="H131" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H131" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I131" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>801</v>
       </c>
@@ -7588,17 +7693,18 @@
       <c r="E132" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="2"/>
+      <c r="G132" s="3">
         <v>458</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="H132" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="H132" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I132" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>804</v>
       </c>
@@ -7614,17 +7720,18 @@
       <c r="E133" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="2"/>
+      <c r="G133" s="3">
         <v>462</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="H133" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="H133" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I133" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>807</v>
       </c>
@@ -7640,17 +7747,18 @@
       <c r="E134" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="2"/>
+      <c r="G134" s="3">
         <v>466</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="H134" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I134" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>810</v>
       </c>
@@ -7666,17 +7774,18 @@
       <c r="E135" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="2"/>
+      <c r="G135" s="3">
         <v>470</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="H135" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="H135" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I135" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>814</v>
       </c>
@@ -7692,17 +7801,18 @@
       <c r="E136" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="2"/>
+      <c r="G136" s="3">
         <v>584</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="H136" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="H136" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I136" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>819</v>
       </c>
@@ -7718,17 +7828,18 @@
       <c r="E137" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="2"/>
+      <c r="G137" s="3">
         <v>474</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="H137" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="H137" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I137" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>823</v>
       </c>
@@ -7744,17 +7855,18 @@
       <c r="E138" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="2"/>
+      <c r="G138" s="3">
         <v>478</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="H138" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="H138" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I138" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>826</v>
       </c>
@@ -7770,17 +7882,18 @@
       <c r="E139" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="2"/>
+      <c r="G139" s="3">
         <v>480</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="H139" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="H139" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I139" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>829</v>
       </c>
@@ -7796,17 +7909,18 @@
       <c r="E140" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="2"/>
+      <c r="G140" s="3">
         <v>175</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="H140" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="H140" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I140" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>833</v>
       </c>
@@ -7822,17 +7936,18 @@
       <c r="E141" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="2"/>
+      <c r="G141" s="3">
         <v>484</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="H141" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="H141" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I141" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>837</v>
       </c>
@@ -7848,17 +7963,18 @@
       <c r="E142" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="2"/>
+      <c r="G142" s="3">
         <v>583</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="H142" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="H142" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I142" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>841</v>
       </c>
@@ -7874,17 +7990,18 @@
       <c r="E143" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="2"/>
+      <c r="G143" s="3">
         <v>498</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="H143" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="H143" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I143" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>844</v>
       </c>
@@ -7900,17 +8017,18 @@
       <c r="E144" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="2"/>
+      <c r="G144" s="3">
         <v>492</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="H144" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="H144" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I144" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>847</v>
       </c>
@@ -7926,17 +8044,18 @@
       <c r="E145" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="2"/>
+      <c r="G145" s="3">
         <v>496</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="H145" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="H145" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I145" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>851</v>
       </c>
@@ -7952,17 +8071,18 @@
       <c r="E146" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F146" s="2"/>
+      <c r="G146" s="3">
         <v>500</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="H146" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I146" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>855</v>
       </c>
@@ -7978,17 +8098,18 @@
       <c r="E147" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147" s="2"/>
+      <c r="G147" s="3">
         <v>504</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="H147" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="H147" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I147" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>858</v>
       </c>
@@ -8004,17 +8125,18 @@
       <c r="E148" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148" s="2"/>
+      <c r="G148" s="3">
         <v>508</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="H148" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="H148" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I148" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>862</v>
       </c>
@@ -8030,17 +8152,18 @@
       <c r="E149" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149" s="2"/>
+      <c r="G149" s="3">
         <v>104</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="H149" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="H149" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I149" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>866</v>
       </c>
@@ -8056,17 +8179,18 @@
       <c r="E150" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="2"/>
+      <c r="G150" s="3">
         <v>516</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="H150" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="H150" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I150" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>870</v>
       </c>
@@ -8082,17 +8206,18 @@
       <c r="E151" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151" s="2"/>
+      <c r="G151" s="3">
         <v>520</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="H151" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I151" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>874</v>
       </c>
@@ -8108,17 +8233,18 @@
       <c r="E152" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="F152" s="3">
+      <c r="F152" s="2"/>
+      <c r="G152" s="3">
         <v>524</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="H152" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="H152" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I152" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>877</v>
       </c>
@@ -8134,17 +8260,18 @@
       <c r="E153" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="F153" s="3">
+      <c r="F153" s="2"/>
+      <c r="G153" s="3">
         <v>528</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="H153" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I153" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>881</v>
       </c>
@@ -8160,17 +8287,18 @@
       <c r="E154" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="F154" s="3">
+      <c r="F154" s="2"/>
+      <c r="G154" s="3">
         <v>530</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="H154" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="H154" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I154" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>886</v>
       </c>
@@ -8186,17 +8314,18 @@
       <c r="E155" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F155" s="2"/>
+      <c r="G155" s="3">
         <v>540</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="H155" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="H155" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I155" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>890</v>
       </c>
@@ -8212,17 +8341,18 @@
       <c r="E156" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F156" s="2"/>
+      <c r="G156" s="3">
         <v>554</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="H156" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="H156" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I156" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>893</v>
       </c>
@@ -8238,17 +8368,18 @@
       <c r="E157" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F157" s="2"/>
+      <c r="G157" s="3">
         <v>558</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="H157" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="H157" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I157" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>896</v>
       </c>
@@ -8264,17 +8395,18 @@
       <c r="E158" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="F158" s="3">
+      <c r="F158" s="2"/>
+      <c r="G158" s="3">
         <v>562</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="H158" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I158" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>899</v>
       </c>
@@ -8290,17 +8422,18 @@
       <c r="E159" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F159" s="2"/>
+      <c r="G159" s="3">
         <v>566</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="H159" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="H159" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I159" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
         <v>903</v>
       </c>
@@ -8316,17 +8449,18 @@
       <c r="E160" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="F160" s="3">
+      <c r="F160" s="2"/>
+      <c r="G160" s="3">
         <v>570</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="H160" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="H160" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I160" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>908</v>
       </c>
@@ -8342,17 +8476,18 @@
       <c r="E161" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="F161" s="3">
+      <c r="F161" s="2"/>
+      <c r="G161" s="3">
         <v>574</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="H161" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="H161" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I161" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>913</v>
       </c>
@@ -8368,17 +8503,18 @@
       <c r="E162" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="F162" s="3">
+      <c r="F162" s="2"/>
+      <c r="G162" s="3">
         <v>580</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="H162" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="H162" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I162" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>917</v>
       </c>
@@ -8394,17 +8530,18 @@
       <c r="E163" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="F163" s="3">
+      <c r="F163" s="2"/>
+      <c r="G163" s="3">
         <v>578</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="H163" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="H163" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I163" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>920</v>
       </c>
@@ -8420,17 +8557,18 @@
       <c r="E164" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F164" s="2"/>
+      <c r="G164" s="3">
         <v>512</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="H164" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="H164" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I164" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>923</v>
       </c>
@@ -8446,17 +8584,18 @@
       <c r="E165" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="F165" s="3">
+      <c r="F165" s="2"/>
+      <c r="G165" s="3">
         <v>586</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="H165" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="H165" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I165" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>927</v>
       </c>
@@ -8472,17 +8611,18 @@
       <c r="E166" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F166" s="2"/>
+      <c r="G166" s="3">
         <v>585</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="H166" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="H166" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I166" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>932</v>
       </c>
@@ -8498,17 +8638,18 @@
       <c r="E167" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F167" s="2"/>
+      <c r="G167" s="3">
         <v>374</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="H167" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="H167" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I167" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
         <v>936</v>
       </c>
@@ -8524,17 +8665,18 @@
       <c r="E168" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="F168" s="3">
+      <c r="F168" s="2"/>
+      <c r="G168" s="3">
         <v>591</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="H168" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="H168" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="I168" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>939</v>
       </c>
@@ -8550,17 +8692,18 @@
       <c r="E169" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="F169" s="3">
+      <c r="F169" s="2"/>
+      <c r="G169" s="3">
         <v>598</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="H169" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="H169" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I169" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>942</v>
       </c>
@@ -8576,17 +8719,18 @@
       <c r="E170" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F170" s="2"/>
+      <c r="G170" s="3">
         <v>600</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="H170" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="H170" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I170" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>945</v>
       </c>
@@ -8602,17 +8746,18 @@
       <c r="E171" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="F171" s="3">
+      <c r="F171" s="2"/>
+      <c r="G171" s="3">
         <v>604</v>
       </c>
-      <c r="G171" s="1" t="s">
+      <c r="H171" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="H171" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I171" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>948</v>
       </c>
@@ -8628,17 +8773,18 @@
       <c r="E172" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="F172" s="3">
+      <c r="F172" s="2"/>
+      <c r="G172" s="3">
         <v>608</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="H172" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="H172" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I172" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>952</v>
       </c>
@@ -8654,17 +8800,18 @@
       <c r="E173" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="F173" s="3">
+      <c r="F173" s="2"/>
+      <c r="G173" s="3">
         <v>612</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="H173" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="H173" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I173" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>956</v>
       </c>
@@ -8680,17 +8827,18 @@
       <c r="E174" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="F174" s="3">
+      <c r="F174" s="2"/>
+      <c r="G174" s="3">
         <v>616</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="H174" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="H174" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I174" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>959</v>
       </c>
@@ -8706,17 +8854,18 @@
       <c r="E175" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="F175" s="3">
+      <c r="F175" s="2"/>
+      <c r="G175" s="3">
         <v>620</v>
       </c>
-      <c r="G175" s="1" t="s">
+      <c r="H175" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="H175" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I175" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>963</v>
       </c>
@@ -8732,17 +8881,18 @@
       <c r="E176" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="F176" s="3">
+      <c r="F176" s="2"/>
+      <c r="G176" s="3">
         <v>630</v>
       </c>
-      <c r="G176" s="1" t="s">
+      <c r="H176" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="H176" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I176" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>967</v>
       </c>
@@ -8758,17 +8908,18 @@
       <c r="E177" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="F177" s="3">
+      <c r="F177" s="2"/>
+      <c r="G177" s="3">
         <v>634</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="H177" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="H177" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I177" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>971</v>
       </c>
@@ -8784,17 +8935,18 @@
       <c r="E178" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="F178" s="3">
+      <c r="F178" s="2"/>
+      <c r="G178" s="3">
         <v>638</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="H178" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="H178" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I178" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>975</v>
       </c>
@@ -8810,17 +8962,18 @@
       <c r="E179" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="F179" s="3">
+      <c r="F179" s="2"/>
+      <c r="G179" s="3">
         <v>642</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="H179" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="H179" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I179" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>979</v>
       </c>
@@ -8836,17 +8989,18 @@
       <c r="E180" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="F180" s="3">
+      <c r="F180" s="2"/>
+      <c r="G180" s="3">
         <v>643</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="H180" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="H180" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I180" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
         <v>982</v>
       </c>
@@ -8862,17 +9016,18 @@
       <c r="E181" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="F181" s="3">
+      <c r="F181" s="2"/>
+      <c r="G181" s="3">
         <v>646</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="H181" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="H181" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I181" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>986</v>
       </c>
@@ -8888,17 +9043,18 @@
       <c r="E182" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="F182" s="3">
+      <c r="F182" s="2"/>
+      <c r="G182" s="3">
         <v>654</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="H182" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="H182" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I182" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>991</v>
       </c>
@@ -8914,17 +9070,18 @@
       <c r="E183" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="F183" s="3">
+      <c r="F183" s="2"/>
+      <c r="G183" s="3">
         <v>659</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="H183" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="H183" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I183" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>996</v>
       </c>
@@ -8940,17 +9097,18 @@
       <c r="E184" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="F184" s="3">
+      <c r="F184" s="2"/>
+      <c r="G184" s="3">
         <v>662</v>
       </c>
-      <c r="G184" s="1" t="s">
+      <c r="H184" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="H184" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I184" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
         <v>1001</v>
       </c>
@@ -8966,17 +9124,18 @@
       <c r="E185" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="F185" s="3">
+      <c r="F185" s="2"/>
+      <c r="G185" s="3">
         <v>666</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="H185" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="H185" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="I185" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
         <v>1006</v>
       </c>
@@ -8992,17 +9151,18 @@
       <c r="E186" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="F186" s="3">
+      <c r="F186" s="2"/>
+      <c r="G186" s="3">
         <v>670</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="H186" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="H186" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I186" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
         <v>1011</v>
       </c>
@@ -9018,17 +9178,18 @@
       <c r="E187" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="F187" s="3">
+      <c r="F187" s="2"/>
+      <c r="G187" s="3">
         <v>882</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="H187" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="H187" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I187" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>1015</v>
       </c>
@@ -9044,17 +9205,18 @@
       <c r="E188" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="F188" s="3">
+      <c r="F188" s="2"/>
+      <c r="G188" s="3">
         <v>674</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="H188" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="H188" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="72" x14ac:dyDescent="0.15">
+      <c r="I188" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="72" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
         <v>1019</v>
       </c>
@@ -9070,17 +9232,18 @@
       <c r="E189" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="F189" s="3">
+      <c r="F189" s="2"/>
+      <c r="G189" s="3">
         <v>678</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="H189" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I189" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>1023</v>
       </c>
@@ -9096,17 +9259,18 @@
       <c r="E190" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="F190" s="3">
+      <c r="F190" s="2"/>
+      <c r="G190" s="3">
         <v>682</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="H190" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="H190" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I190" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>1026</v>
       </c>
@@ -9122,17 +9286,18 @@
       <c r="E191" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="F191" s="3">
+      <c r="F191" s="2"/>
+      <c r="G191" s="3">
         <v>686</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="H191" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="H191" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I191" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
         <v>1030</v>
       </c>
@@ -9148,17 +9313,18 @@
       <c r="E192" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="F192" s="3">
+      <c r="F192" s="2"/>
+      <c r="G192" s="3">
         <v>690</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="H192" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="H192" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I192" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>1035</v>
       </c>
@@ -9174,17 +9340,18 @@
       <c r="E193" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="F193" s="3">
+      <c r="F193" s="2"/>
+      <c r="G193" s="3">
         <v>694</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="H193" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="H193" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I193" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
         <v>1039</v>
       </c>
@@ -9200,17 +9367,18 @@
       <c r="E194" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="F194" s="3">
+      <c r="F194" s="2"/>
+      <c r="G194" s="3">
         <v>702</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="H194" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="H194" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I194" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>1042</v>
       </c>
@@ -9226,17 +9394,18 @@
       <c r="E195" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="F195" s="3">
+      <c r="F195" s="2"/>
+      <c r="G195" s="3">
         <v>703</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="H195" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="H195" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I195" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>1046</v>
       </c>
@@ -9252,17 +9421,18 @@
       <c r="E196" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="F196" s="3">
+      <c r="F196" s="2"/>
+      <c r="G196" s="3">
         <v>705</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="H196" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="H196" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I196" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
         <v>1051</v>
       </c>
@@ -9278,17 +9448,18 @@
       <c r="E197" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="F197" s="3" t="s">
+      <c r="F197" s="2"/>
+      <c r="G197" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="H197" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="H197" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I197" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>1056</v>
       </c>
@@ -9304,17 +9475,18 @@
       <c r="E198" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="F198" s="3">
+      <c r="F198" s="2"/>
+      <c r="G198" s="3">
         <v>706</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="H198" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="H198" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I198" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
         <v>1059</v>
       </c>
@@ -9330,17 +9502,18 @@
       <c r="E199" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="F199" s="3">
+      <c r="F199" s="2"/>
+      <c r="G199" s="3">
         <v>710</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="H199" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="H199" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="I199" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
         <v>1063</v>
       </c>
@@ -9356,17 +9529,18 @@
       <c r="E200" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="F200" s="3">
+      <c r="F200" s="2"/>
+      <c r="G200" s="3">
         <v>239</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="H200" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="H200" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I200" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
         <v>1067</v>
       </c>
@@ -9382,17 +9556,18 @@
       <c r="E201" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="F201" s="3">
+      <c r="F201" s="2"/>
+      <c r="G201" s="3">
         <v>724</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="H201" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="72" x14ac:dyDescent="0.15">
+      <c r="I201" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="72" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
         <v>1071</v>
       </c>
@@ -9408,17 +9583,18 @@
       <c r="E202" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="F202" s="3">
+      <c r="F202" s="2"/>
+      <c r="G202" s="3">
         <v>144</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="H202" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="H202" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I202" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
         <v>1075</v>
       </c>
@@ -9434,17 +9610,18 @@
       <c r="E203" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="F203" s="3">
+      <c r="F203" s="2"/>
+      <c r="G203" s="3">
         <v>736</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="H203" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="H203" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I203" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
         <v>1079</v>
       </c>
@@ -9460,17 +9637,18 @@
       <c r="E204" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="F204" s="3">
+      <c r="F204" s="2"/>
+      <c r="G204" s="3">
         <v>740</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="H204" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="H204" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I204" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
         <v>1084</v>
       </c>
@@ -9486,17 +9664,18 @@
       <c r="E205" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="F205" s="3">
+      <c r="F205" s="2"/>
+      <c r="G205" s="3">
         <v>744</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="H205" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="H205" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I205" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
         <v>1089</v>
       </c>
@@ -9512,17 +9691,18 @@
       <c r="E206" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="F206" s="3">
+      <c r="F206" s="2"/>
+      <c r="G206" s="3">
         <v>748</v>
       </c>
-      <c r="G206" s="1" t="s">
+      <c r="H206" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="H206" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I206" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
         <v>1093</v>
       </c>
@@ -9538,17 +9718,18 @@
       <c r="E207" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="F207" s="3">
+      <c r="F207" s="2"/>
+      <c r="G207" s="3">
         <v>752</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="H207" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="H207" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I207" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
         <v>1096</v>
       </c>
@@ -9564,17 +9745,18 @@
       <c r="E208" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="F208" s="3">
+      <c r="F208" s="2"/>
+      <c r="G208" s="3">
         <v>756</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="H208" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="H208" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I208" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
         <v>1099</v>
       </c>
@@ -9590,17 +9772,18 @@
       <c r="E209" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="F209" s="3">
+      <c r="F209" s="2"/>
+      <c r="G209" s="3">
         <v>760</v>
       </c>
-      <c r="G209" s="1" t="s">
+      <c r="H209" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="H209" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I209" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>1102</v>
       </c>
@@ -9616,17 +9799,18 @@
       <c r="E210" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="F210" s="3">
+      <c r="F210" s="2"/>
+      <c r="G210" s="3">
         <v>762</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="H210" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="H210" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I210" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>1105</v>
       </c>
@@ -9642,17 +9826,18 @@
       <c r="E211" s="2" t="s">
         <v>1106</v>
       </c>
-      <c r="F211" s="3">
+      <c r="F211" s="2"/>
+      <c r="G211" s="3">
         <v>834</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="H211" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="H211" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I211" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>1108</v>
       </c>
@@ -9668,17 +9853,18 @@
       <c r="E212" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="F212" s="3">
+      <c r="F212" s="2"/>
+      <c r="G212" s="3">
         <v>764</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="H212" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="H212" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I212" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>1112</v>
       </c>
@@ -9694,17 +9880,18 @@
       <c r="E213" s="2" t="s">
         <v>1114</v>
       </c>
-      <c r="F213" s="3">
+      <c r="F213" s="2"/>
+      <c r="G213" s="3">
         <v>768</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="H213" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="H213" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I213" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>1117</v>
       </c>
@@ -9720,17 +9907,18 @@
       <c r="E214" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="F214" s="3">
+      <c r="F214" s="2"/>
+      <c r="G214" s="3">
         <v>772</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="H214" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="H214" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I214" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>1121</v>
       </c>
@@ -9746,17 +9934,18 @@
       <c r="E215" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="F215" s="3">
+      <c r="F215" s="2"/>
+      <c r="G215" s="3">
         <v>776</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="H215" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="H215" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I215" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
         <v>1125</v>
       </c>
@@ -9772,17 +9961,18 @@
       <c r="E216" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="F216" s="3">
+      <c r="F216" s="2"/>
+      <c r="G216" s="3">
         <v>780</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="H216" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="H216" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I216" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
         <v>1129</v>
       </c>
@@ -9798,17 +9988,18 @@
       <c r="E217" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="F217" s="3">
+      <c r="F217" s="2"/>
+      <c r="G217" s="3">
         <v>788</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="H217" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I217" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>1133</v>
       </c>
@@ -9824,17 +10015,18 @@
       <c r="E218" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="F218" s="3">
+      <c r="F218" s="2"/>
+      <c r="G218" s="3">
         <v>792</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="H218" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="H218" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I218" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>1137</v>
       </c>
@@ -9850,17 +10042,18 @@
       <c r="E219" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="F219" s="3">
+      <c r="F219" s="2"/>
+      <c r="G219" s="3">
         <v>795</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="H219" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="H219" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I219" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>1141</v>
       </c>
@@ -9876,17 +10069,18 @@
       <c r="E220" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="F220" s="3">
+      <c r="F220" s="2"/>
+      <c r="G220" s="3">
         <v>796</v>
       </c>
-      <c r="G220" s="1" t="s">
+      <c r="H220" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="H220" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I220" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>1146</v>
       </c>
@@ -9902,17 +10096,18 @@
       <c r="E221" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="F221" s="3">
+      <c r="F221" s="2"/>
+      <c r="G221" s="3">
         <v>798</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="H221" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="H221" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I221" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>1150</v>
       </c>
@@ -9928,17 +10123,18 @@
       <c r="E222" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="F222" s="3">
+      <c r="F222" s="2"/>
+      <c r="G222" s="3">
         <v>800</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="H222" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="H222" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I222" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>1153</v>
       </c>
@@ -9954,17 +10150,18 @@
       <c r="E223" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="F223" s="3">
+      <c r="F223" s="2"/>
+      <c r="G223" s="3">
         <v>804</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="H223" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="H223" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I223" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
         <v>1156</v>
       </c>
@@ -9980,17 +10177,18 @@
       <c r="E224" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="F224" s="3">
+      <c r="F224" s="2"/>
+      <c r="G224" s="3">
         <v>784</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="H224" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="H224" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="84" x14ac:dyDescent="0.15">
+      <c r="I224" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>1159</v>
       </c>
@@ -10006,17 +10204,18 @@
       <c r="E225" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="F225" s="3">
+      <c r="F225" s="2"/>
+      <c r="G225" s="3">
         <v>826</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="H225" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="H225" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I225" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>1162</v>
       </c>
@@ -10032,17 +10231,18 @@
       <c r="E226" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="F226" s="3">
+      <c r="F226" s="2"/>
+      <c r="G226" s="3">
         <v>840</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="H226" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="H226" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="I226" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
         <v>1166</v>
       </c>
@@ -10058,17 +10258,18 @@
       <c r="E227" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="F227" s="3">
+      <c r="F227" s="2"/>
+      <c r="G227" s="3">
         <v>581</v>
       </c>
-      <c r="G227" s="1" t="s">
+      <c r="H227" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="H227" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I227" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>1170</v>
       </c>
@@ -10084,17 +10285,18 @@
       <c r="E228" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="F228" s="3">
+      <c r="F228" s="2"/>
+      <c r="G228" s="3">
         <v>858</v>
       </c>
-      <c r="G228" s="1" t="s">
+      <c r="H228" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="H228" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I228" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
         <v>1173</v>
       </c>
@@ -10110,17 +10312,18 @@
       <c r="E229" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="F229" s="3">
+      <c r="F229" s="2"/>
+      <c r="G229" s="3">
         <v>860</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="H229" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="H229" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I229" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
         <v>1177</v>
       </c>
@@ -10136,17 +10339,18 @@
       <c r="E230" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="F230" s="3">
+      <c r="F230" s="2"/>
+      <c r="G230" s="3">
         <v>548</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="H230" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="H230" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I230" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
         <v>1181</v>
       </c>
@@ -10162,17 +10366,18 @@
       <c r="E231" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="F231" s="3">
+      <c r="F231" s="2"/>
+      <c r="G231" s="3">
         <v>336</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="H231" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="H231" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I231" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>1184</v>
       </c>
@@ -10188,17 +10393,18 @@
       <c r="E232" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="F232" s="3">
+      <c r="F232" s="2"/>
+      <c r="G232" s="3">
         <v>862</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="H232" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="H232" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I232" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
         <v>1187</v>
       </c>
@@ -10214,17 +10420,18 @@
       <c r="E233" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="F233" s="3">
+      <c r="F233" s="2"/>
+      <c r="G233" s="3">
         <v>704</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="H233" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="H233" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I233" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
         <v>1191</v>
       </c>
@@ -10240,17 +10447,18 @@
       <c r="E234" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="F234" s="3" t="s">
+      <c r="F234" s="2"/>
+      <c r="G234" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="H234" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="H234" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I234" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>1197</v>
       </c>
@@ -10266,17 +10474,18 @@
       <c r="E235" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="F235" s="3">
+      <c r="F235" s="2"/>
+      <c r="G235" s="3">
         <v>850</v>
       </c>
-      <c r="G235" s="1" t="s">
+      <c r="H235" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="H235" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I235" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
         <v>1202</v>
       </c>
@@ -10292,17 +10501,18 @@
       <c r="E236" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="F236" s="3">
+      <c r="F236" s="2"/>
+      <c r="G236" s="3">
         <v>876</v>
       </c>
-      <c r="G236" s="1" t="s">
+      <c r="H236" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="H236" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="I236" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="24" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
         <v>1207</v>
       </c>
@@ -10318,17 +10528,18 @@
       <c r="E237" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="F237" s="3">
+      <c r="F237" s="2"/>
+      <c r="G237" s="3">
         <v>732</v>
       </c>
-      <c r="G237" s="1" t="s">
+      <c r="H237" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="H237" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I237" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
         <v>1211</v>
       </c>
@@ -10344,17 +10555,18 @@
       <c r="E238" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="F238" s="3">
+      <c r="F238" s="2"/>
+      <c r="G238" s="3">
         <v>887</v>
       </c>
-      <c r="G238" s="1" t="s">
+      <c r="H238" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="H238" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="I238" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
         <v>1214</v>
       </c>
@@ -10370,17 +10582,18 @@
       <c r="E239" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="F239" s="3">
+      <c r="F239" s="2"/>
+      <c r="G239" s="3">
         <v>891</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="H239" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="H239" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="I239" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="36" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
         <v>1217</v>
       </c>
@@ -10396,13 +10609,14 @@
       <c r="E240" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="F240" s="3">
+      <c r="F240" s="2"/>
+      <c r="G240" s="3">
         <v>894</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="H240" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="H240" s="4" t="s">
+      <c r="I240" s="4" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -10422,40 +10636,15 @@
       <c r="E241" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="F241" s="3">
+      <c r="F241" s="2"/>
+      <c r="G241" s="3">
         <v>716</v>
       </c>
-      <c r="G241" s="1" t="s">
+      <c r="H241" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="H241" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A242" s="6" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E242" s="7" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F242" s="8">
-        <v>21</v>
-      </c>
-      <c r="H242" s="5" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I242" s="4" t="s">
-        <v>1233</v>
+      <c r="I241" s="4" t="s">
+        <v>1227</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Area.xlsx
+++ b/Doc/Area.xlsx
@@ -3703,10 +3703,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Country</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MapPos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3962,19 +3958,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BelongAreaID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NameEnglish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3983,9 +3983,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="000"/>
-    <numFmt numFmtId="181" formatCode="0000"/>
-    <numFmt numFmtId="182" formatCode="00000"/>
+    <numFmt numFmtId="176" formatCode="000"/>
+    <numFmt numFmtId="177" formatCode="0000"/>
+    <numFmt numFmtId="178" formatCode="00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -4081,13 +4081,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4400,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G278" sqref="G278:G310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4418,10 +4418,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1224</v>
@@ -4430,22 +4430,22 @@
         <v>1225</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1226</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4468,7 +4468,7 @@
         <v>290</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4491,7 +4491,7 @@
         <v>294</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.15">
@@ -4514,7 +4514,7 @@
         <v>298</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.15">
@@ -4537,7 +4537,7 @@
         <v>304</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4560,7 +4560,7 @@
         <v>310</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4583,7 +4583,7 @@
         <v>314</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -4606,7 +4606,7 @@
         <v>319</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.15">
@@ -4629,7 +4629,7 @@
         <v>325</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4652,7 +4652,7 @@
         <v>331</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4675,7 +4675,7 @@
         <v>335</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4698,7 +4698,7 @@
         <v>341</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -4721,7 +4721,7 @@
         <v>346</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4744,7 +4744,7 @@
         <v>350</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4767,7 +4767,7 @@
         <v>354</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4790,7 +4790,7 @@
         <v>358</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -4813,7 +4813,7 @@
         <v>362</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -4836,7 +4836,7 @@
         <v>366</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -4859,7 +4859,7 @@
         <v>371</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -4882,7 +4882,7 @@
         <v>377</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -4905,7 +4905,7 @@
         <v>382</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -4928,7 +4928,7 @@
         <v>386</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -4951,7 +4951,7 @@
         <v>392</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -4974,7 +4974,7 @@
         <v>395</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -4997,7 +4997,7 @@
         <v>399</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5020,7 +5020,7 @@
         <v>403</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5043,7 +5043,7 @@
         <v>407</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5066,7 +5066,7 @@
         <v>413</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5089,7 +5089,7 @@
         <v>417</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -5112,7 +5112,7 @@
         <v>423</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -5135,7 +5135,7 @@
         <v>427</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5158,7 +5158,7 @@
         <v>433</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5181,7 +5181,7 @@
         <v>437</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5204,7 +5204,7 @@
         <v>440</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -5227,7 +5227,7 @@
         <v>445</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5250,7 +5250,7 @@
         <v>448</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5273,7 +5273,7 @@
         <v>451</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5296,7 +5296,7 @@
         <v>454</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -5319,7 +5319,7 @@
         <v>457</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5342,7 +5342,7 @@
         <v>461</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -5365,7 +5365,7 @@
         <v>466</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5388,7 +5388,7 @@
         <v>470</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5411,7 +5411,7 @@
         <v>475</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5434,7 +5434,7 @@
         <v>478</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -5457,7 +5457,7 @@
         <v>481</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -5480,7 +5480,7 @@
         <v>484</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -5503,7 +5503,7 @@
         <v>487</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -5526,7 +5526,7 @@
         <v>490</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5549,7 +5549,7 @@
         <v>495</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5572,7 +5572,7 @@
         <v>500</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5595,7 +5595,7 @@
         <v>504</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.15">
@@ -5618,7 +5618,7 @@
         <v>509</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5641,7 +5641,7 @@
         <v>513</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -5664,7 +5664,7 @@
         <v>519</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -5687,7 +5687,7 @@
         <v>522</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5710,7 +5710,7 @@
         <v>524</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5733,7 +5733,7 @@
         <v>529</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5756,7 +5756,7 @@
         <v>532</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5779,7 +5779,7 @@
         <v>535</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5802,7 +5802,7 @@
         <v>538</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -5825,7 +5825,7 @@
         <v>542</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5848,7 +5848,7 @@
         <v>545</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5871,7 +5871,7 @@
         <v>550</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5894,7 +5894,7 @@
         <v>555</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5917,7 +5917,7 @@
         <v>560</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -5940,7 +5940,7 @@
         <v>565</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5963,7 +5963,7 @@
         <v>568</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5986,7 +5986,7 @@
         <v>571</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6009,7 +6009,7 @@
         <v>576</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -6032,7 +6032,7 @@
         <v>579</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6055,7 +6055,7 @@
         <v>584</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6078,7 +6078,7 @@
         <v>587</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6101,10 +6101,10 @@
         <v>590</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>591</v>
       </c>
@@ -6116,7 +6116,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="1"/>
       <c r="G74" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.15">
@@ -6139,7 +6139,7 @@
         <v>596</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6162,7 +6162,7 @@
         <v>601</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6185,7 +6185,7 @@
         <v>604</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6208,7 +6208,7 @@
         <v>607</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6231,7 +6231,7 @@
         <v>610</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6254,7 +6254,7 @@
         <v>615</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6277,7 +6277,7 @@
         <v>620</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6300,7 +6300,7 @@
         <v>625</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6323,7 +6323,7 @@
         <v>628</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6344,7 +6344,7 @@
         <v>631</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6367,7 +6367,7 @@
         <v>636</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -6390,7 +6390,7 @@
         <v>639</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6413,7 +6413,7 @@
         <v>642</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6436,7 +6436,7 @@
         <v>647</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6459,7 +6459,7 @@
         <v>650</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6482,7 +6482,7 @@
         <v>655</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6505,7 +6505,7 @@
         <v>658</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6528,7 +6528,7 @@
         <v>663</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -6551,7 +6551,7 @@
         <v>666</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6574,7 +6574,7 @@
         <v>669</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6597,7 +6597,7 @@
         <v>672</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6620,7 +6620,7 @@
         <v>677</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -6643,7 +6643,7 @@
         <v>680</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6666,7 +6666,7 @@
         <v>683</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -6689,7 +6689,7 @@
         <v>688</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6712,7 +6712,7 @@
         <v>691</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6735,7 +6735,7 @@
         <v>694</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6758,7 +6758,7 @@
         <v>697</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6781,7 +6781,7 @@
         <v>700</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6804,7 +6804,7 @@
         <v>703</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -6827,7 +6827,7 @@
         <v>706</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6850,7 +6850,7 @@
         <v>709</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -6873,7 +6873,7 @@
         <v>712</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6896,7 +6896,7 @@
         <v>715</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6919,7 +6919,7 @@
         <v>718</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -6942,7 +6942,7 @@
         <v>721</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -6965,7 +6965,7 @@
         <v>724</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -6988,7 +6988,7 @@
         <v>727</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7011,7 +7011,7 @@
         <v>730</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7034,7 +7034,7 @@
         <v>733</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7057,7 +7057,7 @@
         <v>738</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="72" x14ac:dyDescent="0.15">
@@ -7080,7 +7080,7 @@
         <v>742</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7103,7 +7103,7 @@
         <v>745</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -7126,7 +7126,7 @@
         <v>748</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -7149,7 +7149,7 @@
         <v>753</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -7172,7 +7172,7 @@
         <v>756</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7195,7 +7195,7 @@
         <v>760</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7218,7 +7218,7 @@
         <v>763</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7241,7 +7241,7 @@
         <v>768</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7264,7 +7264,7 @@
         <v>773</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.15">
@@ -7287,7 +7287,7 @@
         <v>776</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7310,7 +7310,7 @@
         <v>781</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7333,7 +7333,7 @@
         <v>784</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7356,7 +7356,7 @@
         <v>787</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="60" x14ac:dyDescent="0.15">
@@ -7379,7 +7379,7 @@
         <v>792</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7402,7 +7402,7 @@
         <v>795</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7425,7 +7425,7 @@
         <v>800</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -7448,7 +7448,7 @@
         <v>803</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7471,7 +7471,7 @@
         <v>806</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7494,7 +7494,7 @@
         <v>809</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7517,7 +7517,7 @@
         <v>812</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -7540,7 +7540,7 @@
         <v>817</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -7563,7 +7563,7 @@
         <v>822</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7586,7 +7586,7 @@
         <v>825</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7609,7 +7609,7 @@
         <v>825</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -7632,7 +7632,7 @@
         <v>832</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7655,7 +7655,7 @@
         <v>835</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -7678,7 +7678,7 @@
         <v>840</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7701,7 +7701,7 @@
         <v>843</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7724,7 +7724,7 @@
         <v>846</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
@@ -7747,7 +7747,7 @@
         <v>849</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -7770,7 +7770,7 @@
         <v>854</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7793,7 +7793,7 @@
         <v>857</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7816,7 +7816,7 @@
         <v>860</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -7839,7 +7839,7 @@
         <v>865</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7862,7 +7862,7 @@
         <v>868</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7885,7 +7885,7 @@
         <v>873</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7908,7 +7908,7 @@
         <v>876</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7931,7 +7931,7 @@
         <v>879</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7954,7 +7954,7 @@
         <v>884</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -7977,7 +7977,7 @@
         <v>889</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8000,7 +8000,7 @@
         <v>892</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8023,7 +8023,7 @@
         <v>895</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8046,7 +8046,7 @@
         <v>898</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -8069,7 +8069,7 @@
         <v>901</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
@@ -8092,7 +8092,7 @@
         <v>906</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8115,7 +8115,7 @@
         <v>911</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -8138,7 +8138,7 @@
         <v>916</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8161,7 +8161,7 @@
         <v>919</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8184,7 +8184,7 @@
         <v>922</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -8207,7 +8207,7 @@
         <v>925</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8230,7 +8230,7 @@
         <v>930</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8253,7 +8253,7 @@
         <v>935</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8276,7 +8276,7 @@
         <v>938</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="60" x14ac:dyDescent="0.15">
@@ -8299,7 +8299,7 @@
         <v>941</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8322,7 +8322,7 @@
         <v>944</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8345,7 +8345,7 @@
         <v>947</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8368,7 +8368,7 @@
         <v>950</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8391,7 +8391,7 @@
         <v>955</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8414,7 +8414,7 @@
         <v>958</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8437,7 +8437,7 @@
         <v>961</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8460,7 +8460,7 @@
         <v>966</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8483,7 +8483,7 @@
         <v>969</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
@@ -8506,7 +8506,7 @@
         <v>974</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8529,7 +8529,7 @@
         <v>977</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8552,7 +8552,7 @@
         <v>981</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8575,7 +8575,7 @@
         <v>984</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8598,7 +8598,7 @@
         <v>989</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -8621,7 +8621,7 @@
         <v>994</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8644,7 +8644,7 @@
         <v>999</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8667,7 +8667,7 @@
         <v>1004</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -8690,7 +8690,7 @@
         <v>1009</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8713,7 +8713,7 @@
         <v>1014</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8736,7 +8736,7 @@
         <v>1017</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="72" x14ac:dyDescent="0.15">
@@ -8759,7 +8759,7 @@
         <v>1022</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8782,7 +8782,7 @@
         <v>1025</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8805,7 +8805,7 @@
         <v>1028</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8828,7 +8828,7 @@
         <v>1033</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8851,7 +8851,7 @@
         <v>1038</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8874,7 +8874,7 @@
         <v>1041</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8897,7 +8897,7 @@
         <v>1044</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8920,7 +8920,7 @@
         <v>1049</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8943,7 +8943,7 @@
         <v>1055</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8966,7 +8966,7 @@
         <v>1058</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8989,7 +8989,7 @@
         <v>1061</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="60" x14ac:dyDescent="0.15">
@@ -9012,7 +9012,7 @@
         <v>1066</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
@@ -9035,7 +9035,7 @@
         <v>1069</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="72" x14ac:dyDescent="0.15">
@@ -9058,7 +9058,7 @@
         <v>1074</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9081,7 +9081,7 @@
         <v>1077</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9104,7 +9104,7 @@
         <v>1082</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9127,7 +9127,7 @@
         <v>1087</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9150,7 +9150,7 @@
         <v>1092</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9173,7 +9173,7 @@
         <v>1095</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -9196,7 +9196,7 @@
         <v>1098</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9219,7 +9219,7 @@
         <v>1101</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9242,7 +9242,7 @@
         <v>1104</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9265,7 +9265,7 @@
         <v>1107</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -9288,7 +9288,7 @@
         <v>1110</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9311,7 +9311,7 @@
         <v>1115</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
@@ -9334,7 +9334,7 @@
         <v>1120</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9357,7 +9357,7 @@
         <v>1123</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9380,7 +9380,7 @@
         <v>1128</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9403,7 +9403,7 @@
         <v>1131</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9426,7 +9426,7 @@
         <v>1136</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -9449,7 +9449,7 @@
         <v>1139</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9472,7 +9472,7 @@
         <v>1144</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
@@ -9495,7 +9495,7 @@
         <v>1149</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9518,7 +9518,7 @@
         <v>1152</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
@@ -9541,7 +9541,7 @@
         <v>1155</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9564,7 +9564,7 @@
         <v>1158</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="84" x14ac:dyDescent="0.15">
@@ -9587,7 +9587,7 @@
         <v>1161</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9610,7 +9610,7 @@
         <v>1164</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9633,7 +9633,7 @@
         <v>1169</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9656,7 +9656,7 @@
         <v>1172</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9679,7 +9679,7 @@
         <v>1175</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9702,7 +9702,7 @@
         <v>1180</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9725,7 +9725,7 @@
         <v>1183</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9748,7 +9748,7 @@
         <v>1186</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9771,7 +9771,7 @@
         <v>1189</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9794,7 +9794,7 @@
         <v>1195</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9817,7 +9817,7 @@
         <v>1200</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9840,7 +9840,7 @@
         <v>1205</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -9863,7 +9863,7 @@
         <v>1210</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9886,7 +9886,7 @@
         <v>1213</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9909,7 +9909,7 @@
         <v>1216</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9932,7 +9932,7 @@
         <v>1219</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9955,728 +9955,728 @@
         <v>1222</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>1227</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A242" s="6" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D242" s="12"/>
       <c r="E242" s="8">
         <v>10</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A243" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D243" s="12"/>
       <c r="E243" s="8">
         <v>22</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A244" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D244" s="12"/>
       <c r="E244" s="8">
         <v>21</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A245" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D245" s="12"/>
       <c r="E245" s="8">
         <v>23</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A246" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D246" s="12"/>
       <c r="E246" s="9">
         <v>311</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A247" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D247" s="12"/>
       <c r="E247" s="9">
         <v>371</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A248" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E248" s="8">
         <v>27</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A249" s="6" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E249" s="9">
         <v>731</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A250" s="6" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E250" s="8">
         <v>25</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A251" s="6" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E251" s="9">
         <v>791</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A252" s="6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E252" s="8">
         <v>24</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A253" s="6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E253" s="9">
         <v>431</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A254" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E254" s="9">
         <v>451</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A255" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E255" s="8">
         <v>29</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A256" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E256" s="9">
         <v>351</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A257" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E257" s="9">
         <v>531</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A258" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E258" s="8">
         <v>28</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A259" s="6" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E259" s="9">
         <v>971</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A260" s="6" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E260" s="9">
         <v>551</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A261" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E261" s="9">
         <v>898</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A262" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E262" s="8">
         <v>20</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A263" s="6" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E263" s="9">
         <v>851</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A264" s="6" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E264" s="9">
         <v>571</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A265" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E265" s="9">
         <v>591</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A266" s="6" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E266" s="9">
         <v>931</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A267" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E267" s="9">
         <v>871</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A268" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E268" s="9">
         <v>891</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A269" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E269" s="9">
         <v>951</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A270" s="6" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E270" s="9">
         <v>771</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A271" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E271" s="9">
         <v>991</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A272" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E272" s="9">
         <v>471</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A273" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E273" s="10">
         <v>852</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A274" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E274" s="10">
         <v>853</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A275" s="6" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A277" s="7" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E277" s="8">
         <v>10</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A278" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E278" s="8">
         <v>22</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A279" s="7" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E279" s="8">
         <v>21</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A280" s="7" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E280" s="8">
         <v>23</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A281" s="7" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E281" s="9">
         <v>311</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E282" s="9">
         <v>371</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A283" s="7" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E283" s="8">
         <v>27</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A284" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E284" s="9">
         <v>731</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A285" s="7" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E285" s="8">
         <v>25</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A286" s="7" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E286" s="9">
         <v>791</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A287" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E287" s="8">
         <v>24</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A288" s="7" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E288" s="9">
         <v>431</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A289" s="7" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E289" s="9">
         <v>451</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A290" s="7" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E290" s="8">
         <v>29</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A291" s="7" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E291" s="9">
         <v>351</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A292" s="7" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E292" s="9">
         <v>531</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A293" s="7" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E293" s="8">
         <v>28</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A294" s="7" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E294" s="9">
         <v>971</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A295" s="7" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E295" s="9">
         <v>551</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A296" s="7" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E296" s="9">
         <v>898</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A297" s="7" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E297" s="8">
         <v>20</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A298" s="7" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E298" s="9">
         <v>851</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A299" s="7" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E299" s="9">
         <v>571</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A300" s="7" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E300" s="9">
         <v>591</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A301" s="7" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E301" s="9">
         <v>931</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A302" s="7" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E302" s="9">
         <v>871</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A303" s="7" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E303" s="9">
         <v>891</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A304" s="7" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E304" s="9">
         <v>951</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A305" s="7" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E305" s="9">
         <v>771</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A306" s="7" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E306" s="9">
         <v>991</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A307" s="7" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E307" s="9">
         <v>471</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10687,7 +10687,7 @@
         <v>852</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10698,18 +10698,18 @@
         <v>853</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A310" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E310" s="11" t="s">
         <v>1264</v>
       </c>
-      <c r="E310" s="11" t="s">
-        <v>1265</v>
-      </c>
       <c r="G310" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Area.xlsx
+++ b/Doc/Area.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1338">
   <si>
     <t>CN</t>
   </si>
@@ -3822,6 +3822,142 @@
     <t>02（00886）</t>
   </si>
   <si>
+    <t>香港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BelongAreaID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameEnglish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3842,15 +3978,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>河南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>台湾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>澳门</t>
+    <t>青海</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>香港</t>
+    <t>安徽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3858,123 +4086,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广西</t>
+    <t>澳门特别行政区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新疆</t>
+    <t>香港特别行政区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宁夏</t>
+    <t>台湾省</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西藏</t>
+    <t>广西壮族自治区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>河南</t>
+    <t>内蒙古自治区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>湖北</t>
+    <t>宁夏回族自治区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>湖南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辽宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘肃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安徽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BelongAreaID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameEnglish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>country</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>city</t>
+    <t>新疆维吾尔自治区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4400,8 +4536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G278" sqref="G278:G310"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F268" sqref="F268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4421,7 +4557,7 @@
         <v>1230</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1300</v>
+        <v>1267</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1224</v>
@@ -4439,7 +4575,7 @@
         <v>1226</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>1299</v>
+        <v>1266</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>1228</v>
@@ -4468,7 +4604,7 @@
         <v>290</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4491,7 +4627,7 @@
         <v>294</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.15">
@@ -4514,7 +4650,7 @@
         <v>298</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.15">
@@ -4537,7 +4673,7 @@
         <v>304</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4560,7 +4696,7 @@
         <v>310</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4583,7 +4719,7 @@
         <v>314</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -4606,7 +4742,7 @@
         <v>319</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.15">
@@ -4629,7 +4765,7 @@
         <v>325</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4652,7 +4788,7 @@
         <v>331</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4675,7 +4811,7 @@
         <v>335</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4698,7 +4834,7 @@
         <v>341</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -4721,7 +4857,7 @@
         <v>346</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4744,7 +4880,7 @@
         <v>350</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4767,7 +4903,7 @@
         <v>354</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36" x14ac:dyDescent="0.15">
@@ -4790,7 +4926,7 @@
         <v>358</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -4813,7 +4949,7 @@
         <v>362</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -4836,7 +4972,7 @@
         <v>366</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -4859,7 +4995,7 @@
         <v>371</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -4882,7 +5018,7 @@
         <v>377</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -4905,7 +5041,7 @@
         <v>382</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -4928,7 +5064,7 @@
         <v>386</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -4951,7 +5087,7 @@
         <v>392</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -4974,7 +5110,7 @@
         <v>395</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -4997,7 +5133,7 @@
         <v>399</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5020,7 +5156,7 @@
         <v>403</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5043,7 +5179,7 @@
         <v>407</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5066,7 +5202,7 @@
         <v>413</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5089,7 +5225,7 @@
         <v>417</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -5112,7 +5248,7 @@
         <v>423</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -5135,7 +5271,7 @@
         <v>427</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5158,7 +5294,7 @@
         <v>433</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5181,7 +5317,7 @@
         <v>437</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5204,7 +5340,7 @@
         <v>440</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -5227,7 +5363,7 @@
         <v>445</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5250,7 +5386,7 @@
         <v>448</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5273,7 +5409,7 @@
         <v>451</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5296,7 +5432,7 @@
         <v>454</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -5319,7 +5455,7 @@
         <v>457</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5342,7 +5478,7 @@
         <v>461</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -5365,7 +5501,7 @@
         <v>466</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5388,7 +5524,7 @@
         <v>470</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5411,7 +5547,7 @@
         <v>475</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5434,7 +5570,7 @@
         <v>478</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -5457,7 +5593,7 @@
         <v>481</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -5480,7 +5616,7 @@
         <v>484</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -5503,7 +5639,7 @@
         <v>487</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -5526,7 +5662,7 @@
         <v>490</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5549,7 +5685,7 @@
         <v>495</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5572,7 +5708,7 @@
         <v>500</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5595,7 +5731,7 @@
         <v>504</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.15">
@@ -5618,7 +5754,7 @@
         <v>509</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5641,7 +5777,7 @@
         <v>513</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -5664,7 +5800,7 @@
         <v>519</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -5687,7 +5823,7 @@
         <v>522</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5710,7 +5846,7 @@
         <v>524</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5733,7 +5869,7 @@
         <v>529</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5756,7 +5892,7 @@
         <v>532</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5779,7 +5915,7 @@
         <v>535</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5802,7 +5938,7 @@
         <v>538</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -5825,7 +5961,7 @@
         <v>542</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5848,7 +5984,7 @@
         <v>545</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5871,7 +6007,7 @@
         <v>550</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5894,7 +6030,7 @@
         <v>555</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5917,7 +6053,7 @@
         <v>560</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -5940,7 +6076,7 @@
         <v>565</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5963,7 +6099,7 @@
         <v>568</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -5986,7 +6122,7 @@
         <v>571</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6009,7 +6145,7 @@
         <v>576</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -6032,7 +6168,7 @@
         <v>579</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6055,7 +6191,7 @@
         <v>584</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6078,7 +6214,7 @@
         <v>587</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6101,7 +6237,7 @@
         <v>590</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6116,7 +6252,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="1"/>
       <c r="G74" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.15">
@@ -6139,7 +6275,7 @@
         <v>596</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6162,7 +6298,7 @@
         <v>601</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6185,7 +6321,7 @@
         <v>604</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6208,7 +6344,7 @@
         <v>607</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6231,7 +6367,7 @@
         <v>610</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6254,7 +6390,7 @@
         <v>615</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6277,7 +6413,7 @@
         <v>620</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6300,7 +6436,7 @@
         <v>625</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6323,7 +6459,7 @@
         <v>628</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6344,7 +6480,7 @@
         <v>631</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6367,7 +6503,7 @@
         <v>636</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -6390,7 +6526,7 @@
         <v>639</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6413,7 +6549,7 @@
         <v>642</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6436,7 +6572,7 @@
         <v>647</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6459,7 +6595,7 @@
         <v>650</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6482,7 +6618,7 @@
         <v>655</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6505,7 +6641,7 @@
         <v>658</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6528,7 +6664,7 @@
         <v>663</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -6551,7 +6687,7 @@
         <v>666</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6574,7 +6710,7 @@
         <v>669</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6597,7 +6733,7 @@
         <v>672</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6620,7 +6756,7 @@
         <v>677</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -6643,7 +6779,7 @@
         <v>680</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6666,7 +6802,7 @@
         <v>683</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -6689,7 +6825,7 @@
         <v>688</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6712,7 +6848,7 @@
         <v>691</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6735,7 +6871,7 @@
         <v>694</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6758,7 +6894,7 @@
         <v>697</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6781,7 +6917,7 @@
         <v>700</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6804,7 +6940,7 @@
         <v>703</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -6827,7 +6963,7 @@
         <v>706</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6850,7 +6986,7 @@
         <v>709</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -6873,7 +7009,7 @@
         <v>712</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -6896,7 +7032,7 @@
         <v>715</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -6919,7 +7055,7 @@
         <v>718</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -6942,7 +7078,7 @@
         <v>721</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -6965,7 +7101,7 @@
         <v>724</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -6988,7 +7124,7 @@
         <v>727</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7011,7 +7147,7 @@
         <v>730</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7034,7 +7170,7 @@
         <v>733</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7057,7 +7193,7 @@
         <v>738</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="72" x14ac:dyDescent="0.15">
@@ -7080,7 +7216,7 @@
         <v>742</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7103,7 +7239,7 @@
         <v>745</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -7126,7 +7262,7 @@
         <v>748</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -7149,7 +7285,7 @@
         <v>753</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -7172,7 +7308,7 @@
         <v>756</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7195,7 +7331,7 @@
         <v>760</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7218,7 +7354,7 @@
         <v>763</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7241,7 +7377,7 @@
         <v>768</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7264,7 +7400,7 @@
         <v>773</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.15">
@@ -7287,7 +7423,7 @@
         <v>776</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7310,7 +7446,7 @@
         <v>781</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7333,7 +7469,7 @@
         <v>784</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7356,7 +7492,7 @@
         <v>787</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="60" x14ac:dyDescent="0.15">
@@ -7379,7 +7515,7 @@
         <v>792</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7402,7 +7538,7 @@
         <v>795</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7425,7 +7561,7 @@
         <v>800</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -7448,7 +7584,7 @@
         <v>803</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7471,7 +7607,7 @@
         <v>806</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7494,7 +7630,7 @@
         <v>809</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7517,7 +7653,7 @@
         <v>812</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -7540,7 +7676,7 @@
         <v>817</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -7563,7 +7699,7 @@
         <v>822</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7586,7 +7722,7 @@
         <v>825</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7609,7 +7745,7 @@
         <v>825</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -7632,7 +7768,7 @@
         <v>832</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7655,7 +7791,7 @@
         <v>835</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -7678,7 +7814,7 @@
         <v>840</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7701,7 +7837,7 @@
         <v>843</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7724,7 +7860,7 @@
         <v>846</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
@@ -7747,7 +7883,7 @@
         <v>849</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -7770,7 +7906,7 @@
         <v>854</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7793,7 +7929,7 @@
         <v>857</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7816,7 +7952,7 @@
         <v>860</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -7839,7 +7975,7 @@
         <v>865</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7862,7 +7998,7 @@
         <v>868</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7885,7 +8021,7 @@
         <v>873</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7908,7 +8044,7 @@
         <v>876</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7931,7 +8067,7 @@
         <v>879</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -7954,7 +8090,7 @@
         <v>884</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -7977,7 +8113,7 @@
         <v>889</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8000,7 +8136,7 @@
         <v>892</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8023,7 +8159,7 @@
         <v>895</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8046,7 +8182,7 @@
         <v>898</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -8069,7 +8205,7 @@
         <v>901</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
@@ -8092,7 +8228,7 @@
         <v>906</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8115,7 +8251,7 @@
         <v>911</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -8138,7 +8274,7 @@
         <v>916</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8161,7 +8297,7 @@
         <v>919</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8184,7 +8320,7 @@
         <v>922</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -8207,7 +8343,7 @@
         <v>925</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8230,7 +8366,7 @@
         <v>930</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8253,7 +8389,7 @@
         <v>935</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8276,7 +8412,7 @@
         <v>938</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="60" x14ac:dyDescent="0.15">
@@ -8299,7 +8435,7 @@
         <v>941</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8322,7 +8458,7 @@
         <v>944</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8345,7 +8481,7 @@
         <v>947</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8368,7 +8504,7 @@
         <v>950</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8391,7 +8527,7 @@
         <v>955</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8414,7 +8550,7 @@
         <v>958</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8437,7 +8573,7 @@
         <v>961</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8460,7 +8596,7 @@
         <v>966</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8483,7 +8619,7 @@
         <v>969</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
@@ -8506,7 +8642,7 @@
         <v>974</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8529,7 +8665,7 @@
         <v>977</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8552,7 +8688,7 @@
         <v>981</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8575,7 +8711,7 @@
         <v>984</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8598,7 +8734,7 @@
         <v>989</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -8621,7 +8757,7 @@
         <v>994</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8644,7 +8780,7 @@
         <v>999</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8667,7 +8803,7 @@
         <v>1004</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -8690,7 +8826,7 @@
         <v>1009</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8713,7 +8849,7 @@
         <v>1014</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8736,7 +8872,7 @@
         <v>1017</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="72" x14ac:dyDescent="0.15">
@@ -8759,7 +8895,7 @@
         <v>1022</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8782,7 +8918,7 @@
         <v>1025</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8805,7 +8941,7 @@
         <v>1028</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8828,7 +8964,7 @@
         <v>1033</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8851,7 +8987,7 @@
         <v>1038</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8874,7 +9010,7 @@
         <v>1041</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8897,7 +9033,7 @@
         <v>1044</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8920,7 +9056,7 @@
         <v>1049</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8943,7 +9079,7 @@
         <v>1055</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -8966,7 +9102,7 @@
         <v>1058</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -8989,7 +9125,7 @@
         <v>1061</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="60" x14ac:dyDescent="0.15">
@@ -9012,7 +9148,7 @@
         <v>1066</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
@@ -9035,7 +9171,7 @@
         <v>1069</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="72" x14ac:dyDescent="0.15">
@@ -9058,7 +9194,7 @@
         <v>1074</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9081,7 +9217,7 @@
         <v>1077</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9104,7 +9240,7 @@
         <v>1082</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9127,7 +9263,7 @@
         <v>1087</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9150,7 +9286,7 @@
         <v>1092</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9173,7 +9309,7 @@
         <v>1095</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -9196,7 +9332,7 @@
         <v>1098</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9219,7 +9355,7 @@
         <v>1101</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9242,7 +9378,7 @@
         <v>1104</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9265,7 +9401,7 @@
         <v>1107</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -9288,7 +9424,7 @@
         <v>1110</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9311,7 +9447,7 @@
         <v>1115</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
@@ -9334,7 +9470,7 @@
         <v>1120</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9357,7 +9493,7 @@
         <v>1123</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9380,7 +9516,7 @@
         <v>1128</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9403,7 +9539,7 @@
         <v>1131</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9426,7 +9562,7 @@
         <v>1136</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -9449,7 +9585,7 @@
         <v>1139</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9472,7 +9608,7 @@
         <v>1144</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
@@ -9495,7 +9631,7 @@
         <v>1149</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9518,7 +9654,7 @@
         <v>1152</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
@@ -9541,7 +9677,7 @@
         <v>1155</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9564,7 +9700,7 @@
         <v>1158</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="84" x14ac:dyDescent="0.15">
@@ -9587,7 +9723,7 @@
         <v>1161</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9610,7 +9746,7 @@
         <v>1164</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9633,7 +9769,7 @@
         <v>1169</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9656,7 +9792,7 @@
         <v>1172</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9679,7 +9815,7 @@
         <v>1175</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9702,7 +9838,7 @@
         <v>1180</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9725,7 +9861,7 @@
         <v>1183</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9748,7 +9884,7 @@
         <v>1186</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9771,7 +9907,7 @@
         <v>1189</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9794,7 +9930,7 @@
         <v>1195</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9817,7 +9953,7 @@
         <v>1200</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9840,7 +9976,7 @@
         <v>1205</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -9863,7 +9999,7 @@
         <v>1210</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9886,7 +10022,7 @@
         <v>1213</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="48" x14ac:dyDescent="0.15">
@@ -9909,7 +10045,7 @@
         <v>1216</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9932,7 +10068,7 @@
         <v>1219</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -9955,387 +10091,489 @@
         <v>1222</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>1301</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A242" s="6" t="s">
-        <v>1265</v>
+        <v>1299</v>
       </c>
       <c r="D242" s="12"/>
       <c r="E242" s="8">
         <v>10</v>
       </c>
+      <c r="F242" s="7" t="s">
+        <v>1271</v>
+      </c>
       <c r="G242" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A243" s="6" t="s">
-        <v>1266</v>
+        <v>1300</v>
       </c>
       <c r="D243" s="12"/>
       <c r="E243" s="8">
         <v>22</v>
       </c>
+      <c r="F243" s="7" t="s">
+        <v>1272</v>
+      </c>
       <c r="G243" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A244" s="6" t="s">
-        <v>1267</v>
+        <v>1301</v>
       </c>
       <c r="D244" s="12"/>
       <c r="E244" s="8">
         <v>21</v>
       </c>
+      <c r="F244" s="7" t="s">
+        <v>1273</v>
+      </c>
       <c r="G244" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A245" s="6" t="s">
-        <v>1268</v>
+        <v>1302</v>
       </c>
       <c r="D245" s="12"/>
       <c r="E245" s="8">
         <v>23</v>
       </c>
+      <c r="F245" s="7" t="s">
+        <v>1274</v>
+      </c>
       <c r="G245" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A246" s="6" t="s">
-        <v>1269</v>
+        <v>1303</v>
       </c>
       <c r="D246" s="12"/>
       <c r="E246" s="9">
         <v>311</v>
       </c>
+      <c r="F246" s="7" t="s">
+        <v>1275</v>
+      </c>
       <c r="G246" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A247" s="6" t="s">
-        <v>1278</v>
+        <v>1304</v>
       </c>
       <c r="D247" s="12"/>
       <c r="E247" s="9">
         <v>371</v>
       </c>
+      <c r="F247" s="7" t="s">
+        <v>1276</v>
+      </c>
       <c r="G247" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A248" s="6" t="s">
-        <v>1279</v>
+        <v>1305</v>
       </c>
       <c r="E248" s="8">
         <v>27</v>
       </c>
+      <c r="F248" s="7" t="s">
+        <v>1277</v>
+      </c>
       <c r="G248" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A249" s="6" t="s">
-        <v>1280</v>
+        <v>1306</v>
       </c>
       <c r="E249" s="9">
         <v>731</v>
       </c>
+      <c r="F249" s="7" t="s">
+        <v>1278</v>
+      </c>
       <c r="G249" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A250" s="6" t="s">
-        <v>1281</v>
+        <v>1307</v>
       </c>
       <c r="E250" s="8">
         <v>25</v>
       </c>
+      <c r="F250" s="7" t="s">
+        <v>1279</v>
+      </c>
       <c r="G250" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A251" s="6" t="s">
-        <v>1282</v>
+        <v>1308</v>
       </c>
       <c r="E251" s="9">
         <v>791</v>
       </c>
+      <c r="F251" s="7" t="s">
+        <v>1280</v>
+      </c>
       <c r="G251" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A252" s="6" t="s">
-        <v>1283</v>
+        <v>1309</v>
       </c>
       <c r="E252" s="8">
         <v>24</v>
       </c>
+      <c r="F252" s="7" t="s">
+        <v>1281</v>
+      </c>
       <c r="G252" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A253" s="6" t="s">
-        <v>1284</v>
+        <v>1310</v>
       </c>
       <c r="E253" s="9">
         <v>431</v>
       </c>
+      <c r="F253" s="7" t="s">
+        <v>1282</v>
+      </c>
       <c r="G253" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A254" s="6" t="s">
-        <v>1285</v>
+        <v>1311</v>
       </c>
       <c r="E254" s="9">
         <v>451</v>
       </c>
+      <c r="F254" s="7" t="s">
+        <v>1283</v>
+      </c>
       <c r="G254" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A255" s="6" t="s">
-        <v>1286</v>
+        <v>1312</v>
       </c>
       <c r="E255" s="8">
         <v>29</v>
       </c>
+      <c r="F255" s="7" t="s">
+        <v>1284</v>
+      </c>
       <c r="G255" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A256" s="6" t="s">
-        <v>1290</v>
+        <v>1313</v>
       </c>
       <c r="E256" s="9">
         <v>351</v>
       </c>
+      <c r="F256" s="7" t="s">
+        <v>1285</v>
+      </c>
       <c r="G256" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A257" s="6" t="s">
-        <v>1291</v>
+        <v>1314</v>
       </c>
       <c r="E257" s="9">
         <v>531</v>
       </c>
+      <c r="F257" s="7" t="s">
+        <v>1286</v>
+      </c>
       <c r="G257" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A258" s="6" t="s">
-        <v>1292</v>
+        <v>1315</v>
       </c>
       <c r="E258" s="8">
         <v>28</v>
       </c>
+      <c r="F258" s="7" t="s">
+        <v>1287</v>
+      </c>
       <c r="G258" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A259" s="6" t="s">
-        <v>1293</v>
+        <v>1317</v>
       </c>
       <c r="E259" s="9">
         <v>971</v>
       </c>
+      <c r="F259" s="7" t="s">
+        <v>1288</v>
+      </c>
       <c r="G259" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A260" s="6" t="s">
-        <v>1294</v>
+        <v>1318</v>
       </c>
       <c r="E260" s="9">
         <v>551</v>
       </c>
+      <c r="F260" s="7" t="s">
+        <v>1289</v>
+      </c>
       <c r="G260" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A261" s="6" t="s">
-        <v>1295</v>
+        <v>1319</v>
       </c>
       <c r="E261" s="9">
         <v>898</v>
       </c>
+      <c r="F261" s="7" t="s">
+        <v>1290</v>
+      </c>
       <c r="G261" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A262" s="6" t="s">
-        <v>1296</v>
+        <v>1320</v>
       </c>
       <c r="E262" s="8">
         <v>20</v>
       </c>
+      <c r="F262" s="7" t="s">
+        <v>1291</v>
+      </c>
       <c r="G262" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A263" s="6" t="s">
-        <v>1297</v>
+        <v>1321</v>
       </c>
       <c r="E263" s="9">
         <v>851</v>
       </c>
+      <c r="F263" s="7" t="s">
+        <v>1292</v>
+      </c>
       <c r="G263" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A264" s="6" t="s">
-        <v>1298</v>
+        <v>1322</v>
       </c>
       <c r="E264" s="9">
         <v>571</v>
       </c>
+      <c r="F264" s="7" t="s">
+        <v>1293</v>
+      </c>
       <c r="G264" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A265" s="6" t="s">
-        <v>1289</v>
+        <v>1323</v>
       </c>
       <c r="E265" s="9">
         <v>591</v>
       </c>
+      <c r="F265" s="7" t="s">
+        <v>1294</v>
+      </c>
       <c r="G265" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A266" s="6" t="s">
-        <v>1288</v>
+        <v>1324</v>
       </c>
       <c r="E266" s="9">
         <v>931</v>
       </c>
+      <c r="F266" s="7" t="s">
+        <v>1295</v>
+      </c>
       <c r="G266" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A267" s="6" t="s">
-        <v>1287</v>
+        <v>1325</v>
       </c>
       <c r="E267" s="9">
         <v>871</v>
       </c>
+      <c r="F267" s="7" t="s">
+        <v>1296</v>
+      </c>
       <c r="G267" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A268" s="6" t="s">
-        <v>1277</v>
+        <v>1326</v>
       </c>
       <c r="E268" s="9">
         <v>891</v>
       </c>
+      <c r="F268" s="7" t="s">
+        <v>1297</v>
+      </c>
       <c r="G268" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A269" s="6" t="s">
-        <v>1276</v>
+        <v>1327</v>
       </c>
       <c r="E269" s="9">
         <v>951</v>
       </c>
+      <c r="F269" s="7" t="s">
+        <v>1336</v>
+      </c>
       <c r="G269" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A270" s="6" t="s">
-        <v>1274</v>
+        <v>1328</v>
       </c>
       <c r="E270" s="9">
         <v>771</v>
       </c>
+      <c r="F270" s="7" t="s">
+        <v>1334</v>
+      </c>
       <c r="G270" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A271" s="6" t="s">
-        <v>1275</v>
+        <v>1329</v>
       </c>
       <c r="E271" s="9">
         <v>991</v>
       </c>
+      <c r="F271" s="7" t="s">
+        <v>1337</v>
+      </c>
       <c r="G271" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A272" s="6" t="s">
-        <v>1273</v>
+        <v>1330</v>
       </c>
       <c r="E272" s="9">
         <v>471</v>
       </c>
+      <c r="F272" s="7" t="s">
+        <v>1335</v>
+      </c>
       <c r="G272" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A273" s="6" t="s">
-        <v>1271</v>
+        <v>1298</v>
       </c>
       <c r="E273" s="10">
         <v>852</v>
       </c>
+      <c r="F273" s="7" t="s">
+        <v>1331</v>
+      </c>
       <c r="G273" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A274" s="6" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="E274" s="10">
         <v>853</v>
       </c>
+      <c r="F274" s="7" t="s">
+        <v>1332</v>
+      </c>
       <c r="G274" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A275" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E275" s="11" t="s">
-        <v>1264</v>
+        <v>1316</v>
+      </c>
+      <c r="E275" s="10">
+        <v>886</v>
+      </c>
+      <c r="F275" s="7" t="s">
+        <v>1333</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>1302</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10346,7 +10584,7 @@
         <v>10</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10357,7 +10595,7 @@
         <v>22</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10368,7 +10606,7 @@
         <v>21</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10379,7 +10617,7 @@
         <v>23</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10390,7 +10628,7 @@
         <v>311</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10401,7 +10639,7 @@
         <v>371</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10412,7 +10650,7 @@
         <v>27</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10423,7 +10661,7 @@
         <v>731</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10434,7 +10672,7 @@
         <v>25</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10445,7 +10683,7 @@
         <v>791</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10456,7 +10694,7 @@
         <v>24</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10467,7 +10705,7 @@
         <v>431</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10478,7 +10716,7 @@
         <v>451</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10489,7 +10727,7 @@
         <v>29</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10500,7 +10738,7 @@
         <v>351</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10511,7 +10749,7 @@
         <v>531</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10522,7 +10760,7 @@
         <v>28</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10533,7 +10771,7 @@
         <v>971</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10544,7 +10782,7 @@
         <v>551</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10555,7 +10793,7 @@
         <v>898</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10566,7 +10804,7 @@
         <v>20</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10577,7 +10815,7 @@
         <v>851</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10588,7 +10826,7 @@
         <v>571</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10599,7 +10837,7 @@
         <v>591</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10610,7 +10848,7 @@
         <v>931</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10621,7 +10859,7 @@
         <v>871</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10632,7 +10870,7 @@
         <v>891</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10643,7 +10881,7 @@
         <v>951</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10654,7 +10892,7 @@
         <v>771</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10665,7 +10903,7 @@
         <v>991</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10676,7 +10914,7 @@
         <v>471</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10687,7 +10925,7 @@
         <v>852</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10698,7 +10936,7 @@
         <v>853</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10709,7 +10947,7 @@
         <v>1264</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>1303</v>
+        <v>1270</v>
       </c>
     </row>
   </sheetData>
